--- a/legendre_out/CSV/analytically/p2/a4/a4Fit.xlsx
+++ b/legendre_out/CSV/analytically/p2/a4/a4Fit.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F229"/>
+  <dimension ref="A1:J229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -374,43 +374,75 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>a1</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>a2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>a3</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>a4</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>a0_err</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>a2_err</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>a4_err</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Chi2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Pval</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Chi2NDF</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>3.99602</v>
       </c>
       <c r="B2" t="n">
-        <v>1.228575641690442e-05</v>
+        <v>1.228279748733995e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1.241681971309381e-06</v>
       </c>
       <c r="D2" t="n">
-        <v>1.193190102307659e-06</v>
+        <v>-7.183298200057985e-07</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.876469153655275e-07</v>
       </c>
       <c r="F2" t="n">
-        <v>-5.594531077829194e-07</v>
+        <v>7.044000356781929e-07</v>
+      </c>
+      <c r="G2" t="n">
+        <v>8.630947697774261e-07</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5.598970712792563</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.2311658798997249</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.399742678198141</v>
       </c>
     </row>
     <row r="3">
@@ -418,19 +450,31 @@
         <v>4.00097</v>
       </c>
       <c r="B3" t="n">
-        <v>1.903558990619529e-05</v>
+        <v>1.900276150155703e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5.274648043145156e-06</v>
       </c>
       <c r="D3" t="n">
-        <v>5.623090851230865e-06</v>
+        <v>-4.762776546873896e-06</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>5.772910591198055e-07</v>
       </c>
       <c r="F3" t="n">
-        <v>-5.058246623240781e-06</v>
+        <v>9.973172419314539e-07</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.276707419925388e-06</v>
+      </c>
+      <c r="H3" t="n">
+        <v>9.178343865237123</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.05679308008739259</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.294585966309281</v>
       </c>
     </row>
     <row r="4">
@@ -438,19 +482,31 @@
         <v>4.00294</v>
       </c>
       <c r="B4" t="n">
-        <v>2.260171732119847e-05</v>
+        <v>2.253434230392179e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>5.753609747747929e-06</v>
       </c>
       <c r="D4" t="n">
-        <v>6.009596229002049e-06</v>
+        <v>-6.117675283243436e-06</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>6.545702995385158e-07</v>
       </c>
       <c r="F4" t="n">
-        <v>-6.532806832243212e-06</v>
+        <v>1.128372439783396e-06</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.422612944869798e-06</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10.50772496970774</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0326907467735027</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.626931242426935</v>
       </c>
     </row>
     <row r="5">
@@ -458,19 +514,31 @@
         <v>4.00497</v>
       </c>
       <c r="B5" t="n">
-        <v>2.589951697680996e-05</v>
+        <v>2.586246681455101e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>4.793948531563979e-06</v>
       </c>
       <c r="D5" t="n">
-        <v>4.838789906598537e-06</v>
+        <v>-4.558260879462251e-06</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>7.567938629087964e-07</v>
       </c>
       <c r="F5" t="n">
-        <v>-4.445830285411144e-06</v>
+        <v>1.34323755219014e-06</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.682055969039138e-06</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5.91205110410297</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.2058133314010793</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.478012776025742</v>
       </c>
     </row>
     <row r="6">
@@ -478,19 +546,31 @@
         <v>4.00697</v>
       </c>
       <c r="B6" t="n">
-        <v>3.219049816941388e-05</v>
+        <v>3.215134816863106e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2.171948719447224e-06</v>
       </c>
       <c r="D6" t="n">
-        <v>2.02673482301374e-06</v>
+        <v>-2.171126759943589e-06</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>8.796855824823705e-07</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.988368385051521e-06</v>
+        <v>1.586373426707822e-06</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.934556326838148e-06</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5.51355993865892</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.2385401187585501</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.37838998466473</v>
       </c>
     </row>
     <row r="7">
@@ -498,19 +578,31 @@
         <v>4.00909</v>
       </c>
       <c r="B7" t="n">
-        <v>3.421483815798936e-05</v>
+        <v>3.415351099932105e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1.15764396557585e-06</v>
       </c>
       <c r="D7" t="n">
-        <v>1.072058453759126e-06</v>
+        <v>-4.702378931453059e-06</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>9.728756205849261e-07</v>
       </c>
       <c r="F7" t="n">
-        <v>-4.532003025723045e-06</v>
+        <v>1.746676186747255e-06</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.086884768245051e-06</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.242980237569083</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.6911686690993095</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.5607450593922708</v>
       </c>
     </row>
     <row r="8">
@@ -518,19 +610,31 @@
         <v>4.01003</v>
       </c>
       <c r="B8" t="n">
-        <v>3.484059564782812e-05</v>
+        <v>3.474635486814424e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1.283696529596107e-06</v>
       </c>
       <c r="D8" t="n">
-        <v>1.102281172402301e-06</v>
+        <v>-9.532208930963381e-07</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>9.843729879760871e-07</v>
       </c>
       <c r="F8" t="n">
-        <v>-7.31680662926504e-07</v>
+        <v>1.818145230132436e-06</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.143062843681895e-06</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.604703544212298</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.6259901380207805</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.6511758860530745</v>
       </c>
     </row>
     <row r="9">
@@ -538,19 +642,31 @@
         <v>4.01507</v>
       </c>
       <c r="B9" t="n">
-        <v>3.886378965503615e-05</v>
+        <v>3.883797199941219e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>2.085907766091955e-06</v>
       </c>
       <c r="D9" t="n">
-        <v>2.030809777219804e-06</v>
+        <v>-2.453023441369192e-06</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1.013420230925885e-06</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.317304766424236e-06</v>
+        <v>1.830307382090152e-06</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.211246472760433e-06</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.717752740549603</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.4455491555754951</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.9294381851374007</v>
       </c>
     </row>
     <row r="10">
@@ -558,19 +674,31 @@
         <v>4.01911</v>
       </c>
       <c r="B10" t="n">
-        <v>3.849423705920395e-05</v>
+        <v>3.847454079517247e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1.116208464098716e-06</v>
       </c>
       <c r="D10" t="n">
-        <v>1.075240953967646e-06</v>
+        <v>-2.825882883365342e-06</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>9.773178191249743e-07</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.700511168690448e-06</v>
+        <v>1.762533869146238e-06</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.110082224894535e-06</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.744011767212337</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.7827081679614187</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.4360029418030841</v>
       </c>
     </row>
     <row r="11">
@@ -578,19 +706,31 @@
         <v>4.01992</v>
       </c>
       <c r="B11" t="n">
-        <v>3.570511107602372e-05</v>
+        <v>3.561848909356672e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>4.526919372134639e-07</v>
       </c>
       <c r="D11" t="n">
-        <v>2.548038178621932e-07</v>
+        <v>-1.621328016103181e-06</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>9.825504740507221e-07</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.345748233579036e-06</v>
+        <v>1.802103852062296e-06</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.112901531225721e-06</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4.00551873080586</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.4052594859408096</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.001379682701465</v>
       </c>
     </row>
     <row r="12">
@@ -598,19 +738,31 @@
         <v>4.02504</v>
       </c>
       <c r="B12" t="n">
-        <v>3.559230500216019e-05</v>
+        <v>3.553189512676543e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1.740674045303842e-06</v>
       </c>
       <c r="D12" t="n">
-        <v>1.683881915177064e-06</v>
+        <v>-5.586146426548977e-06</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>9.802884191081316e-07</v>
       </c>
       <c r="F12" t="n">
-        <v>-5.511601208318448e-06</v>
+        <v>1.757836588183398e-06</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.089188374868938e-06</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.248101782535708</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.6902331581772208</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.562025445633927</v>
       </c>
     </row>
     <row r="13">
@@ -618,19 +770,31 @@
         <v>4.02998</v>
       </c>
       <c r="B13" t="n">
-        <v>3.014514858077701e-05</v>
+        <v>3.013919357059504e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>4.58357408768747e-07</v>
       </c>
       <c r="D13" t="n">
-        <v>3.232884213495536e-07</v>
+        <v>-2.300184683764689e-06</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>8.150582495992869e-07</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.03841613414163e-06</v>
+        <v>1.475115547336358e-06</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.755688602379496e-06</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.806019337075538</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.590794115697564</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.7015048342688845</v>
       </c>
     </row>
     <row r="14">
@@ -638,19 +802,31 @@
         <v>4.03514</v>
       </c>
       <c r="B14" t="n">
-        <v>2.347545559240991e-05</v>
+        <v>2.350315901011582e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>8.763264549998902e-07</v>
       </c>
       <c r="D14" t="n">
-        <v>8.76207342043224e-07</v>
+        <v>-2.651681407568559e-06</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>6.718465247282221e-07</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.480704107442371e-06</v>
+        <v>1.19988405057106e-06</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.425638552603348e-06</v>
+      </c>
+      <c r="H14" t="n">
+        <v>10.20911154656314</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.03704875864070378</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.552277886640784</v>
       </c>
     </row>
     <row r="15">
@@ -658,19 +834,31 @@
         <v>4.26996</v>
       </c>
       <c r="B15" t="n">
-        <v>1.315745378961632e-05</v>
+        <v>1.318057769791016e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1.72996877453052e-07</v>
       </c>
       <c r="D15" t="n">
-        <v>9.605398699208726e-08</v>
+        <v>3.300997101184834e-07</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>4.489454386509825e-07</v>
       </c>
       <c r="F15" t="n">
-        <v>5.351542843726122e-07</v>
+        <v>8.445400160698581e-07</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.017048873859721e-06</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.593185626750888</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.8100163683377342</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.3982964066877219</v>
       </c>
     </row>
     <row r="16">
@@ -678,19 +866,31 @@
         <v>4.29005</v>
       </c>
       <c r="B16" t="n">
-        <v>1.866322342182541e-05</v>
+        <v>1.860797520079919e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1.686394381045903e-06</v>
       </c>
       <c r="D16" t="n">
-        <v>1.661273343382537e-06</v>
+        <v>-8.618378937879974e-07</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>5.882739236541081e-07</v>
       </c>
       <c r="F16" t="n">
-        <v>-8.330872535888918e-07</v>
+        <v>1.091886290157322e-06</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.294564520534109e-06</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.961994582267495</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.9155030485639024</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.2404986455668738</v>
       </c>
     </row>
     <row r="17">
@@ -698,19 +898,31 @@
         <v>4.291119999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>2.563189051417448e-05</v>
+        <v>2.550381189838748e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>5.87575172643545e-06</v>
       </c>
       <c r="D17" t="n">
-        <v>5.840703083301228e-06</v>
+        <v>-1.9620644451854e-06</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>7.942557591250624e-07</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.985105624018921e-06</v>
+        <v>1.436167664801975e-06</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.800031916397747e-06</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5.051906287941567</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.2820129326021932</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.262976571985392</v>
       </c>
     </row>
     <row r="18">
@@ -718,19 +930,31 @@
         <v>4.29319</v>
       </c>
       <c r="B18" t="n">
-        <v>3.060552812542407e-05</v>
+        <v>3.066122769698249e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>5.075482959063364e-06</v>
       </c>
       <c r="D18" t="n">
-        <v>4.825434120209318e-06</v>
+        <v>2.348168453367343e-06</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>8.957942951098384e-07</v>
       </c>
       <c r="F18" t="n">
-        <v>2.632454342425946e-06</v>
+        <v>1.72027381439447e-06</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.043952900934066e-06</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.945532179801271</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.4134274525806261</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.9863830449503178</v>
       </c>
     </row>
     <row r="19">
@@ -738,19 +962,31 @@
         <v>4.2942</v>
       </c>
       <c r="B19" t="n">
-        <v>3.543023231902341e-05</v>
+        <v>3.534104804301268e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>7.532237818955564e-06</v>
       </c>
       <c r="D19" t="n">
-        <v>7.452915325791306e-06</v>
+        <v>-5.923591092036812e-07</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1.023818978065743e-06</v>
       </c>
       <c r="F19" t="n">
-        <v>-7.889951573000463e-07</v>
+        <v>1.888972548463055e-06</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.355497485409907e-06</v>
+      </c>
+      <c r="H19" t="n">
+        <v>5.473880032504491</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.2420350043555599</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.368470008126123</v>
       </c>
     </row>
     <row r="20">
@@ -758,19 +994,31 @@
         <v>4.29515</v>
       </c>
       <c r="B20" t="n">
-        <v>4.251915789354338e-05</v>
+        <v>4.237286020093778e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.03126924424365e-05</v>
       </c>
       <c r="D20" t="n">
-        <v>1.025765308077004e-05</v>
+        <v>2.50159105955435e-06</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1.18001743997461e-06</v>
       </c>
       <c r="F20" t="n">
-        <v>2.234122200728784e-06</v>
+        <v>2.2190274531792e-06</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.744533211671832e-06</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.644540247535584</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.618953633320289</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.661135061883896</v>
       </c>
     </row>
     <row r="21">
@@ -778,19 +1026,31 @@
         <v>4.29615</v>
       </c>
       <c r="B21" t="n">
-        <v>4.691970200706611e-05</v>
+        <v>4.678165980119964e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1.46541741832296e-05</v>
       </c>
       <c r="D21" t="n">
-        <v>1.452916295809215e-05</v>
+        <v>-3.288945083791635e-06</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1.328745248403911e-06</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.314683058769621e-06</v>
+        <v>2.44010990943493e-06</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3.047784316408314e-06</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4.782367611213981</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.3103654701362584</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.195591902803495</v>
       </c>
     </row>
     <row r="22">
@@ -798,19 +1058,31 @@
         <v>4.297219999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>7.255539451170535e-05</v>
+        <v>7.239702923996774e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1.772983110369282e-05</v>
       </c>
       <c r="D22" t="n">
-        <v>1.771149339106308e-05</v>
+        <v>-1.049091166079673e-06</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1.93111129661337e-06</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.532913108172544e-06</v>
+        <v>3.541467895605682e-06</v>
+      </c>
+      <c r="G22" t="n">
+        <v>4.480680770540595e-06</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.332208565152973</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.5038453285339941</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.8330521412882432</v>
       </c>
     </row>
     <row r="23">
@@ -818,19 +1090,31 @@
         <v>4.298080000000001</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0002074858492356014</v>
+        <v>0.0002070112503431051</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>7.16552310015216e-05</v>
       </c>
       <c r="D23" t="n">
-        <v>7.177014376431194e-05</v>
+        <v>3.767568095035755e-06</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>5.279514823181496e-06</v>
       </c>
       <c r="F23" t="n">
-        <v>2.158033535096435e-06</v>
+        <v>9.867504236087231e-06</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.256149382705617e-05</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.045745242261191</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.9027819861674381</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.2614363105652977</v>
       </c>
     </row>
     <row r="24">
@@ -838,19 +1122,31 @@
         <v>4.299090000000001</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0003298726932172412</v>
+        <v>0.0003289728932473946</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>0.0001179547249265935</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0001179194085982915</v>
+        <v>-7.724001148531e-06</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>8.277077222076851e-06</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.157277977914248e-05</v>
+        <v>1.52452957767789e-05</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.962720546171517e-05</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.936381029773464</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.5685277139174922</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.7340952574433659</v>
       </c>
     </row>
     <row r="25">
@@ -858,19 +1154,31 @@
         <v>4.30105</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0004948493614595205</v>
+        <v>0.0004945571901364692</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>0.000145908863740349</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0001449740838585628</v>
+        <v>-1.836984947657942e-05</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.223891548330657e-05</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.92563009300357e-05</v>
+        <v>2.253483083221369e-05</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.860471615443369e-05</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.962375536534234</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.7426791035765157</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.4905938841335585</v>
       </c>
     </row>
     <row r="26">
@@ -878,19 +1186,31 @@
         <v>4.3031</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0004968300003117005</v>
+        <v>0.0004964972081378147</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>0.0001625217754628247</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0001623441502433489</v>
+        <v>-7.984038239492895e-06</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1.20269193231682e-05</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.252129169800109e-05</v>
+        <v>2.216077962027223e-05</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.855317008864165e-05</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.777657011095867</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.595695633255098</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.6944142527739668</v>
       </c>
     </row>
     <row r="27">
@@ -898,19 +1218,31 @@
         <v>4.30523</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0004625149210924445</v>
+        <v>0.0004612720286526437</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>0.000144047496374824</v>
       </c>
       <c r="D27" t="n">
-        <v>0.000144873274740332</v>
+        <v>-1.881070341753881e-05</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1.143570934622249e-05</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.645969235078537e-05</v>
+        <v>2.068268831611309e-05</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2.672753928459366e-05</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4.736933962144067</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.3153698373708256</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.184233490536017</v>
       </c>
     </row>
     <row r="28">
@@ -918,19 +1250,31 @@
         <v>4.30725</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0004398658044472219</v>
+        <v>0.0004389307844743376</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>0.0001406688463991283</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0001402792361658519</v>
+        <v>-1.04935603652364e-05</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1.109797482862156e-05</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.522275771040811e-05</v>
+        <v>2.039765015390188e-05</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2.61596132670896e-05</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.636551204889179</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.4574213173349903</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.9091378012222947</v>
       </c>
     </row>
     <row r="29">
@@ -938,19 +1282,31 @@
         <v>4.3093</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0004436007206151536</v>
+        <v>0.0004424629163341727</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>0.0001374896962635858</v>
       </c>
       <c r="D29" t="n">
-        <v>0.000137883957560144</v>
+        <v>-1.816650177913237e-05</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1.11649703669389e-05</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.327449908643219e-05</v>
+        <v>2.035623153526968e-05</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.611204856754059e-05</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.14125337131191</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.5344714470250226</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.7853133428279775</v>
       </c>
     </row>
     <row r="30">
@@ -958,19 +1314,31 @@
         <v>4.30996</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0004490792413274638</v>
+        <v>0.0004482292181490949</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>0.0001242319752125206</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0001244012483946088</v>
+        <v>-7.548912998685243e-06</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1.109663966078452e-05</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.092224657725897e-05</v>
+        <v>2.032718930366263e-05</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2.582034997171729e-05</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2.072826455412158</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.7223661114438382</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.5182066138530395</v>
       </c>
     </row>
     <row r="31">
@@ -978,19 +1346,31 @@
         <v>4.31117</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0004316818742603781</v>
+        <v>0.0004307435221314363</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>0.0001259828088364247</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0001262995731275819</v>
+        <v>-1.207968478698473e-05</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1.072526162921347e-05</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.740283494108576e-05</v>
+        <v>1.949673301552716e-05</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2.490405487223872e-05</v>
+      </c>
+      <c r="H31" t="n">
+        <v>4.270242649686483</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.3706661630948502</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.067560662421621</v>
       </c>
     </row>
     <row r="32">
@@ -998,19 +1378,31 @@
         <v>4.31311</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0004375816358605141</v>
+        <v>0.0004367231201291063</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>0.0001427472004418314</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0001428971365344635</v>
+        <v>-1.424049424177056e-05</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1.08685364469395e-05</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.85701998371292e-05</v>
+        <v>1.986204014547731e-05</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2.560752178253763e-05</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2.764087114036414</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.5980476772597829</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.6910217785091034</v>
       </c>
     </row>
     <row r="33">
@@ -1018,19 +1410,31 @@
         <v>4.31513</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0004343195968409811</v>
+        <v>0.000432854589392356</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>0.0001556295762742085</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0001561052094259903</v>
+        <v>-1.496259377411113e-05</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1.089725027628751e-05</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.326352822909609e-05</v>
+        <v>1.982291919194999e-05</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2.580046992937458e-05</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4.775268330696507</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.3111430906944517</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.193817082674127</v>
       </c>
     </row>
     <row r="34">
@@ -1038,19 +1442,31 @@
         <v>4.3172</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0004225456404208289</v>
+        <v>0.0004216636375809392</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>0.0001214612440127938</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0001212261796049848</v>
+        <v>2.085749142387966e-06</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1.043673330940344e-05</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.098065324818379e-06</v>
+        <v>1.926885637938024e-05</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2.451206249551061e-05</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2.924574826576594</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.5705259338650315</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.7311437066441485</v>
       </c>
     </row>
     <row r="35">
@@ -1058,19 +1474,31 @@
         <v>4.31917</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0004129999454240049</v>
+        <v>0.0004126674508484821</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>0.0001278786984991928</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0001273960095386345</v>
+        <v>-4.626174801175141e-06</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1.043815207274689e-05</v>
       </c>
       <c r="F35" t="n">
-        <v>-6.060866539695934e-06</v>
+        <v>1.942448655594909e-05</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2.468695513676441e-05</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2.068457457607676</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.7231692538853483</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.517114364401919</v>
       </c>
     </row>
     <row r="36">
@@ -1078,19 +1506,31 @@
         <v>4.32116</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0003842755930241964</v>
+        <v>0.0003832091208527165</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>0.0001213439211499791</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0001213009145278884</v>
+        <v>-7.811874533464672e-06</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>9.580103081343838e-06</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.428158103116842e-05</v>
+        <v>1.749185364153413e-05</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2.2475277271442e-05</v>
+      </c>
+      <c r="H36" t="n">
+        <v>5.152688867461341</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.2719863866824117</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.288172216865335</v>
       </c>
     </row>
     <row r="37">
@@ -1098,19 +1538,31 @@
         <v>4.32298</v>
       </c>
       <c r="B37" t="n">
-        <v>0.000349407078520444</v>
+        <v>0.0003483606917158728</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>0.000113567183056668</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0001136116218167039</v>
+        <v>-5.459249783695277e-06</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>8.686836634855048e-06</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.274954348550666e-05</v>
+        <v>1.582281091819407e-05</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2.047054887830686e-05</v>
+      </c>
+      <c r="H37" t="n">
+        <v>5.954963439170399</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.2025369713926222</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.4887408597926</v>
       </c>
     </row>
     <row r="38">
@@ -1118,19 +1570,31 @@
         <v>4.32521</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0002834873720203248</v>
+        <v>0.0002827976315734979</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>9.260262389694976e-05</v>
       </c>
       <c r="D38" t="n">
-        <v>9.263541308462649e-05</v>
+        <v>-7.261422153123165e-06</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>6.99353993625683e-06</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.093648055676641e-05</v>
+        <v>1.278921134808997e-05</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1.642943632687599e-05</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3.99979879304583</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.4060330807948382</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.9999496982614575</v>
       </c>
     </row>
     <row r="39">
@@ -1138,19 +1602,31 @@
         <v>4.32711</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0002263226022185394</v>
+        <v>0.000225880017447889</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>6.694352825290762e-05</v>
       </c>
       <c r="D39" t="n">
-        <v>6.699262178494348e-05</v>
+        <v>-6.421943315443443e-06</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>5.570752332236579e-06</v>
       </c>
       <c r="F39" t="n">
-        <v>-8.850588419933016e-06</v>
+        <v>1.019182366654211e-05</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1.305017368938953e-05</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3.031539241049596</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.5525613275564223</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.7578848102623991</v>
       </c>
     </row>
     <row r="40">
@@ -1158,19 +1634,31 @@
         <v>4.32908</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0001524053000863543</v>
+        <v>0.0001519032413201891</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>5.265476881068631e-05</v>
       </c>
       <c r="D40" t="n">
-        <v>5.298022848348868e-05</v>
+        <v>-2.151517631657603e-06</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>3.786835911716239e-06</v>
       </c>
       <c r="F40" t="n">
-        <v>-5.61153170390262e-06</v>
+        <v>6.874096951384686e-06</v>
+      </c>
+      <c r="G40" t="n">
+        <v>8.942136270220145e-06</v>
+      </c>
+      <c r="H40" t="n">
+        <v>5.514909492124666</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.2384220283841744</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1.378727373031166</v>
       </c>
     </row>
     <row r="41">
@@ -1178,19 +1666,31 @@
         <v>4.33012</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0002153603808217792</v>
+        <v>0.0002149649117280042</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>6.515943251160459e-05</v>
       </c>
       <c r="D41" t="n">
-        <v>6.539263039061742e-05</v>
+        <v>-3.709103342968095e-06</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>5.40872528969999e-06</v>
       </c>
       <c r="F41" t="n">
-        <v>-5.505395260787173e-06</v>
+        <v>9.986226411525332e-06</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1.273134977560228e-05</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1.821841628416658</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.7684839610803562</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.4554604071041645</v>
       </c>
     </row>
     <row r="42">
@@ -1198,19 +1698,31 @@
         <v>4.33119</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0001082470372139842</v>
+        <v>0.000107918371444229</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>3.465393395312002e-05</v>
       </c>
       <c r="D42" t="n">
-        <v>3.471268042915766e-05</v>
+        <v>-2.375757071084849e-06</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>2.766686830925497e-06</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.486921178754773e-06</v>
+        <v>5.096512300311033e-06</v>
+      </c>
+      <c r="G42" t="n">
+        <v>6.48056351992876e-06</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3.091966410474765</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.5425547366249104</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.7729916026186912</v>
       </c>
     </row>
     <row r="43">
@@ -1218,19 +1730,31 @@
         <v>4.33324</v>
       </c>
       <c r="B43" t="n">
-        <v>7.32178174818692e-05</v>
+        <v>7.321974117570484e-05</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1.535711572225838e-05</v>
       </c>
       <c r="D43" t="n">
-        <v>1.570759029777731e-05</v>
+        <v>-1.440543576031165e-06</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1.90247463021999e-06</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.908147984638471e-06</v>
+        <v>3.525948319588951e-06</v>
+      </c>
+      <c r="G43" t="n">
+        <v>4.388645900331398e-06</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1.585856786063015</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.8113318388077584</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.3964641965157538</v>
       </c>
     </row>
     <row r="44">
@@ -1238,19 +1762,31 @@
         <v>4.33515</v>
       </c>
       <c r="B44" t="n">
-        <v>5.585146925150745e-05</v>
+        <v>5.571901807405406e-05</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1.193164160388334e-05</v>
       </c>
       <c r="D44" t="n">
-        <v>1.197868178176079e-05</v>
+        <v>-1.253097406796939e-06</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1.472296449248469e-06</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.556214651551317e-06</v>
+        <v>2.694856121726759e-06</v>
+      </c>
+      <c r="G44" t="n">
+        <v>3.348496360638034e-06</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3.871491125784323</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.4236769108070484</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.9678727814460807</v>
       </c>
     </row>
     <row r="45">
@@ -1258,19 +1794,31 @@
         <v>4.34004</v>
       </c>
       <c r="B45" t="n">
-        <v>3.356349423420047e-05</v>
+        <v>3.348904041813839e-05</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>8.037298114647132e-06</v>
       </c>
       <c r="D45" t="n">
-        <v>8.064875320804794e-06</v>
+        <v>-5.357803901952828e-07</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>9.545437648355854e-07</v>
       </c>
       <c r="F45" t="n">
-        <v>-6.850182817372557e-07</v>
+        <v>1.774265893230185e-06</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2.222403449343997e-06</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2.561304807934148</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.6336928790339256</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.640326201983537</v>
       </c>
     </row>
     <row r="46">
@@ -1278,19 +1826,31 @@
         <v>4.34488</v>
       </c>
       <c r="B46" t="n">
-        <v>2.995333645059326e-05</v>
+        <v>2.991505160106451e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>3.366493885355845e-06</v>
       </c>
       <c r="D46" t="n">
-        <v>3.244147981182869e-06</v>
+        <v>-2.919350258795949e-06</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>9.043209137456739e-07</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.736630961604158e-06</v>
+        <v>1.630809527822707e-06</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2.027320814207675e-06</v>
+      </c>
+      <c r="H46" t="n">
+        <v>7.415849829400228</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.1154777193281721</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1.853962457350057</v>
       </c>
     </row>
     <row r="47">
@@ -1298,19 +1858,31 @@
         <v>4.34998</v>
       </c>
       <c r="B47" t="n">
-        <v>2.831894560644632e-05</v>
+        <v>2.831640809768285e-05</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>3.119406452010349e-06</v>
       </c>
       <c r="D47" t="n">
-        <v>3.208310212909219e-06</v>
+        <v>-1.606740933687462e-06</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>8.298799753937136e-07</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.551912564657043e-06</v>
+        <v>1.519229381931947e-06</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1.868375701874186e-06</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3.367863992649152</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.498252095476152</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.8419659981622881</v>
       </c>
     </row>
     <row r="48">
@@ -1318,19 +1890,31 @@
         <v>4.37005</v>
       </c>
       <c r="B48" t="n">
-        <v>3.063531991494212e-05</v>
+        <v>3.083330464162303e-05</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>9.503265698069524e-07</v>
       </c>
       <c r="D48" t="n">
-        <v>5.763502774685686e-07</v>
+        <v>-2.963605786915936e-06</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>8.741134954033114e-07</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.127510297602181e-06</v>
+        <v>1.594785071919904e-06</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1.927607317592689e-06</v>
+      </c>
+      <c r="H48" t="n">
+        <v>6.256353270440688</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.1808041607272823</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1.564088317610172</v>
       </c>
     </row>
     <row r="49">
@@ -1338,19 +1922,31 @@
         <v>4.39015</v>
       </c>
       <c r="B49" t="n">
-        <v>3.984673354432587e-05</v>
+        <v>3.988040309041732e-05</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>-2.422688248658025e-06</v>
       </c>
       <c r="D49" t="n">
-        <v>-2.336938406866212e-06</v>
+        <v>2.482747111162332e-06</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1.07961200947293e-06</v>
       </c>
       <c r="F49" t="n">
-        <v>2.476468196500343e-06</v>
+        <v>2.034481602251975e-06</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2.363194518150009e-06</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1.676351725437252</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.7950087470607883</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.4190879313593131</v>
       </c>
     </row>
     <row r="50">
@@ -1358,19 +1954,31 @@
         <v>4.41003</v>
       </c>
       <c r="B50" t="n">
-        <v>5.452373363692064e-05</v>
+        <v>5.454620688762674e-05</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>-3.031096191466317e-06</v>
       </c>
       <c r="D50" t="n">
-        <v>-3.422328225010883e-06</v>
+        <v>6.866671296321087e-07</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>1.438393693874204e-06</v>
       </c>
       <c r="F50" t="n">
-        <v>1.263308448727208e-06</v>
+        <v>2.627711316568716e-06</v>
+      </c>
+      <c r="G50" t="n">
+        <v>3.104884316066753e-06</v>
+      </c>
+      <c r="H50" t="n">
+        <v>4.625322885479568</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.3279449515956434</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1.156330721369892</v>
       </c>
     </row>
     <row r="51">
@@ -1378,19 +1986,31 @@
         <v>4.42024</v>
       </c>
       <c r="B51" t="n">
-        <v>7.967588378182359e-05</v>
+        <v>7.969442943786195e-05</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>-2.721508048238092e-06</v>
       </c>
       <c r="D51" t="n">
-        <v>-3.122118679548253e-06</v>
+        <v>-2.681240139494454e-06</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>2.051856361176231e-06</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.372656762824105e-06</v>
+        <v>3.726034908382291e-06</v>
+      </c>
+      <c r="G51" t="n">
+        <v>4.391283794107229e-06</v>
+      </c>
+      <c r="H51" t="n">
+        <v>5.93112018480633</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.2043516513176291</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1.482780046201583</v>
       </c>
     </row>
     <row r="52">
@@ -1398,19 +2018,31 @@
         <v>4.43018</v>
       </c>
       <c r="B52" t="n">
-        <v>9.987566162019207e-05</v>
+        <v>9.986541413452701e-05</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>-6.467558385140945e-06</v>
       </c>
       <c r="D52" t="n">
-        <v>-6.739170169847284e-06</v>
+        <v>-1.623542713655586e-06</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>2.474721359653799e-06</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.142820172858278e-06</v>
+        <v>4.507068163274635e-06</v>
+      </c>
+      <c r="G52" t="n">
+        <v>5.267475091847786e-06</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1.577349658412041</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.8128572229341854</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.3943374146030103</v>
       </c>
     </row>
     <row r="53">
@@ -1418,19 +2050,31 @@
         <v>4.44004</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0001885274085430803</v>
+        <v>0.0001885181489033564</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>-1.380904499306054e-05</v>
       </c>
       <c r="D53" t="n">
-        <v>-1.4634931962722e-05</v>
+        <v>-5.899863455932587e-07</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>4.825487537268085e-06</v>
       </c>
       <c r="F53" t="n">
-        <v>2.146514403566522e-07</v>
+        <v>8.870058854502739e-06</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1.033428649129912e-05</v>
+      </c>
+      <c r="H53" t="n">
+        <v>3.039680834772104</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.5512070085418959</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.7599202086930259</v>
       </c>
     </row>
     <row r="54">
@@ -1438,19 +2082,31 @@
         <v>4.44994</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0002952726547063229</v>
+        <v>0.0002953153876925333</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>-3.244416387165628e-05</v>
       </c>
       <c r="D54" t="n">
-        <v>-3.328808854316344e-05</v>
+        <v>-3.734220027404853e-06</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>7.356856213785432e-06</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.064008118300758e-06</v>
+        <v>1.344631207752679e-05</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1.543833301832538e-05</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.9976299405673039</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.9101551548072484</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.249407485141826</v>
       </c>
     </row>
     <row r="55">
@@ -1458,19 +2114,31 @@
         <v>4.45499</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0006945385589279013</v>
+        <v>0.0006941127103160807</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>-8.67966213950128e-05</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.894377183758605e-05</v>
+        <v>1.098552176696842e-05</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>1.756213371951355e-05</v>
       </c>
       <c r="F55" t="n">
-        <v>1.402790845042946e-05</v>
+        <v>3.253290461762425e-05</v>
+      </c>
+      <c r="G55" t="n">
+        <v>3.69677411749379e-05</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.6768107508048201</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.9541575366307811</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.169202687701205</v>
       </c>
     </row>
     <row r="56">
@@ -1478,19 +2146,31 @@
         <v>4.46012</v>
       </c>
       <c r="B56" t="n">
-        <v>0.001033880075552093</v>
+        <v>0.001033732354024066</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>-9.766737681489337e-05</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.0001032763415800412</v>
+        <v>5.802017295562182e-06</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>2.557425073272964e-05</v>
       </c>
       <c r="F56" t="n">
-        <v>1.202642474059259e-05</v>
+        <v>4.66488592199716e-05</v>
+      </c>
+      <c r="G56" t="n">
+        <v>5.412969212342124e-05</v>
+      </c>
+      <c r="H56" t="n">
+        <v>3.069752407800074</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.5462211204000615</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.7674381019500184</v>
       </c>
     </row>
     <row r="57">
@@ -1498,19 +2178,31 @@
         <v>4.469959999999999</v>
       </c>
       <c r="B57" t="n">
-        <v>0.001088594662809026</v>
+        <v>0.001090144715032086</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>-0.0001365504082745338</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.0001443314127724849</v>
+        <v>2.67773774825634e-06</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>2.652403461202237e-05</v>
       </c>
       <c r="F57" t="n">
-        <v>1.251337946877137e-05</v>
+        <v>4.784703050543466e-05</v>
+      </c>
+      <c r="G57" t="n">
+        <v>5.538709620260177e-05</v>
+      </c>
+      <c r="H57" t="n">
+        <v>5.196141598499242</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.2677576532423035</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1.299035399624811</v>
       </c>
     </row>
     <row r="58">
@@ -1518,19 +2210,31 @@
         <v>4.477980000000001</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0008054759293198736</v>
+        <v>0.0008052098251362931</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>-9.405543257650956e-05</v>
       </c>
       <c r="D58" t="n">
-        <v>-9.870466741384614e-05</v>
+        <v>1.397312747965706e-05</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>2.001997050248923e-05</v>
       </c>
       <c r="F58" t="n">
-        <v>1.92872386813394e-05</v>
+        <v>3.664665099945465e-05</v>
+      </c>
+      <c r="G58" t="n">
+        <v>4.214939560948513e-05</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2.773258475649071</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.5964575362741003</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.6933146189122678</v>
       </c>
     </row>
     <row r="59">
@@ -1538,19 +2242,31 @@
         <v>4.48613</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0003840345442235</v>
+        <v>0.0003841897456213595</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>-3.16519143040191e-05</v>
       </c>
       <c r="D59" t="n">
-        <v>-3.362233426160983e-05</v>
+        <v>-1.074209160354376e-05</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>9.681636545741785e-06</v>
       </c>
       <c r="F59" t="n">
-        <v>-7.454601798291475e-06</v>
+        <v>1.747551022831335e-05</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2.034713178490474e-05</v>
+      </c>
+      <c r="H59" t="n">
+        <v>3.749815710302858</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.4409220256304501</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.9374539275757146</v>
       </c>
     </row>
     <row r="60">
@@ -1558,19 +2274,31 @@
         <v>4.48819</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0002835986569765465</v>
+        <v>0.0002833896105329389</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>-2.949849113786273e-05</v>
       </c>
       <c r="D60" t="n">
-        <v>-3.0979964707681e-05</v>
+        <v>7.844873694970661e-07</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>7.216080154659615e-06</v>
       </c>
       <c r="F60" t="n">
-        <v>2.404745956289426e-06</v>
+        <v>1.331914776097164e-05</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1.523433439409203e-05</v>
+      </c>
+      <c r="H60" t="n">
+        <v>2.444419543253631</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.6546152122444289</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.6111048858134077</v>
       </c>
     </row>
     <row r="61">
@@ -1578,19 +2306,31 @@
         <v>4.490069999999999</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0003741846283219001</v>
+        <v>0.0003743197139149446</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>-4.789711224462107e-05</v>
       </c>
       <c r="D61" t="n">
-        <v>-5.06977738343269e-05</v>
+        <v>6.960218125112564e-06</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>9.309141782739104e-06</v>
       </c>
       <c r="F61" t="n">
-        <v>1.027578495422294e-05</v>
+        <v>1.696015454280643e-05</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1.956167787360124e-05</v>
+      </c>
+      <c r="H61" t="n">
+        <v>3.959648530458378</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.4114943711360293</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.9899121326145944</v>
       </c>
     </row>
     <row r="62">
@@ -1598,19 +2338,31 @@
         <v>4.49222</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0001442983961668411</v>
+        <v>0.000144213916129693</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>-8.988121244306495e-06</v>
       </c>
       <c r="D62" t="n">
-        <v>-1.005798639830167e-05</v>
+        <v>1.458301400973568e-06</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>3.752231475273316e-06</v>
       </c>
       <c r="F62" t="n">
-        <v>2.810311196661262e-06</v>
+        <v>6.854337960566318e-06</v>
+      </c>
+      <c r="G62" t="n">
+        <v>8.026690961509297e-06</v>
+      </c>
+      <c r="H62" t="n">
+        <v>4.464937940322057</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.3467252019899234</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1.116234485080514</v>
       </c>
     </row>
     <row r="63">
@@ -1618,19 +2370,31 @@
         <v>4.49499</v>
       </c>
       <c r="B63" t="n">
-        <v>9.702979900588223e-05</v>
+        <v>9.69852078559342e-05</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>-8.121482505497537e-07</v>
       </c>
       <c r="D63" t="n">
-        <v>-1.11414433854611e-06</v>
+        <v>-1.15838250260296e-06</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>2.476182334266629e-06</v>
       </c>
       <c r="F63" t="n">
-        <v>-7.468692430802806e-07</v>
+        <v>4.499279948141316e-06</v>
+      </c>
+      <c r="G63" t="n">
+        <v>5.333540210230433e-06</v>
+      </c>
+      <c r="H63" t="n">
+        <v>3.867377866531589</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.4242517370189568</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.9668444666328972</v>
       </c>
     </row>
     <row r="64">
@@ -1638,19 +2402,31 @@
         <v>4.499969999999999</v>
       </c>
       <c r="B64" t="n">
-        <v>5.513967727302481e-05</v>
+        <v>5.500388863561644e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>4.598459434177313e-06</v>
       </c>
       <c r="D64" t="n">
-        <v>4.434724098806882e-06</v>
+        <v>-1.72246368223102e-07</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>1.49529931981451e-06</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.756704171956467e-07</v>
+        <v>2.742633134517447e-06</v>
+      </c>
+      <c r="G64" t="n">
+        <v>3.329631158529267e-06</v>
+      </c>
+      <c r="H64" t="n">
+        <v>4.725628163852013</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.316625391527414</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1.181407040963003</v>
       </c>
     </row>
     <row r="65">
@@ -1658,19 +2434,31 @@
         <v>4.51021</v>
       </c>
       <c r="B65" t="n">
-        <v>4.11981340631951e-05</v>
+        <v>4.131104826165721e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>3.156576311700346e-06</v>
       </c>
       <c r="D65" t="n">
-        <v>3.444972140930314e-06</v>
+        <v>2.426017882810914e-06</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>1.128484373021319e-06</v>
       </c>
       <c r="F65" t="n">
-        <v>2.307239415419458e-06</v>
+        <v>2.140383921798578e-06</v>
+      </c>
+      <c r="G65" t="n">
+        <v>2.577990356562681e-06</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1.954136740686486</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.7441942095448848</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.4885341851716215</v>
       </c>
     </row>
     <row r="66">
@@ -1678,19 +2466,31 @@
         <v>4.51218</v>
       </c>
       <c r="B66" t="n">
-        <v>9.529954021510829e-05</v>
+        <v>9.508759040258371e-05</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>2.513898437290277e-05</v>
       </c>
       <c r="D66" t="n">
-        <v>2.533265393622129e-05</v>
+        <v>1.596526014176013e-06</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>2.508096245051375e-06</v>
       </c>
       <c r="F66" t="n">
-        <v>8.524395340675216e-07</v>
+        <v>4.668453891519441e-06</v>
+      </c>
+      <c r="G66" t="n">
+        <v>5.847975719994436e-06</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1.803695688127146</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.7718061349658906</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.4509239220317866</v>
       </c>
     </row>
     <row r="67">
@@ -1698,19 +2498,31 @@
         <v>4.51508</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0002763360792365213</v>
+        <v>0.0002755894907214005</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>8.166926068315259e-05</v>
       </c>
       <c r="D67" t="n">
-        <v>8.162917687574241e-05</v>
+        <v>-7.330483674074749e-06</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>7.041711501842173e-06</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.135738055212563e-05</v>
+        <v>1.286368697442126e-05</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1.651505727729474e-05</v>
+      </c>
+      <c r="H67" t="n">
+        <v>4.86750713006855</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.3011642239872222</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1.216876782517138</v>
       </c>
     </row>
     <row r="68">
@@ -1718,19 +2530,31 @@
         <v>4.52007</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0004825883017085533</v>
+        <v>0.0004818709273727767</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>0.0001158358706249631</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0001159228706166386</v>
+        <v>2.056264978032201e-06</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>1.181607744888684e-05</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.398841777041833e-06</v>
+        <v>2.182979246644647e-05</v>
+      </c>
+      <c r="G68" t="n">
+        <v>2.749491014515075e-05</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1.964591256965862</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.7422716133666949</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.4911478142414654</v>
       </c>
     </row>
     <row r="69">
@@ -1738,19 +2562,31 @@
         <v>4.52524</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0008766832710567427</v>
+        <v>0.0008754954119993455</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>0.0001821745578686244</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0001806294652657412</v>
+        <v>-1.779459305203154e-05</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>2.155881313959195e-05</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.783164318250907e-05</v>
+        <v>3.925814254693155e-05</v>
+      </c>
+      <c r="G69" t="n">
+        <v>4.970426172672519e-05</v>
+      </c>
+      <c r="H69" t="n">
+        <v>5.190402749032558</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.2683129194397819</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1.29760068725814</v>
       </c>
     </row>
     <row r="70">
@@ -1758,19 +2594,31 @@
         <v>4.529409999999999</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0008748113213622015</v>
+        <v>0.000873722431476973</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>0.0001896729180179207</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0001897978292584408</v>
+        <v>-7.87845778532875e-06</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>2.070044544728435e-05</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.46689246684395e-05</v>
+        <v>3.777197220875824e-05</v>
+      </c>
+      <c r="G70" t="n">
+        <v>4.774835659320354e-05</v>
+      </c>
+      <c r="H70" t="n">
+        <v>2.372472503427856</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.6676075401087233</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.5931181258569641</v>
       </c>
     </row>
     <row r="71">
@@ -1778,19 +2626,31 @@
         <v>4.53506</v>
       </c>
       <c r="B71" t="n">
-        <v>0.001525537104353613</v>
+        <v>0.001524002859973626</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>0.0002773220553665652</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0002768026444856774</v>
+        <v>-5.683156110325004e-06</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>3.64429224776068e-05</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.231283789873688e-05</v>
+        <v>6.692677701351348e-05</v>
+      </c>
+      <c r="G71" t="n">
+        <v>8.34770281006134e-05</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1.651399420402343</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.799525866570993</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.4128498551005858</v>
       </c>
     </row>
     <row r="72">
@@ -1798,19 +2658,31 @@
         <v>4.54024</v>
       </c>
       <c r="B72" t="n">
-        <v>0.001694219238277504</v>
+        <v>0.001692755441857586</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>0.0002802846404011719</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0002776849130769557</v>
+        <v>-3.148066169163721e-05</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>4.170629432741494e-05</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.968325593940802e-05</v>
+        <v>7.633784590925116e-05</v>
+      </c>
+      <c r="G72" t="n">
+        <v>9.534741137004861e-05</v>
+      </c>
+      <c r="H72" t="n">
+        <v>3.116712141625038</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.5384874013759868</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.7791780354062595</v>
       </c>
     </row>
     <row r="73">
@@ -1818,19 +2690,31 @@
         <v>4.5498</v>
       </c>
       <c r="B73" t="n">
-        <v>0.002182388741767498</v>
+        <v>0.00218259381815648</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>0.0001501539859645098</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0001500018113410926</v>
+        <v>-3.455840048700387e-05</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>4.871280118734354e-05</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.879330203513406e-05</v>
+        <v>8.759785457741047e-05</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.000108357415811257</v>
+      </c>
+      <c r="H73" t="n">
+        <v>1.237894506057471</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.8718209934966381</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.3094736265143677</v>
       </c>
     </row>
     <row r="74">
@@ -1838,19 +2722,31 @@
         <v>4.56018</v>
       </c>
       <c r="B74" t="n">
-        <v>0.003297136219062464</v>
+        <v>0.003299655605187652</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>-6.998395864201389e-05</v>
       </c>
       <c r="D74" t="n">
-        <v>-7.985015752264708e-05</v>
+        <v>-5.473027166478031e-07</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>7.561999105961753e-05</v>
       </c>
       <c r="F74" t="n">
-        <v>-6.571770879716006e-06</v>
+        <v>0.0001362794416275387</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.0001638932322479079</v>
+      </c>
+      <c r="H74" t="n">
+        <v>4.248170885707774</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.373460192110163</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1.062042721426943</v>
       </c>
     </row>
     <row r="75">
@@ -1858,19 +2754,31 @@
         <v>4.570130000000001</v>
       </c>
       <c r="B75" t="n">
-        <v>0.003040614904303332</v>
+        <v>0.00304268667685354</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>-0.0001374531591676529</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.0001503040763116118</v>
+        <v>1.479234912693354e-05</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>7.033100251447356e-05</v>
       </c>
       <c r="F75" t="n">
-        <v>1.264014620319295e-05</v>
+        <v>0.0001272478060107106</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.0001525726806446871</v>
+      </c>
+      <c r="H75" t="n">
+        <v>4.038264020390596</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.4008521455676995</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1.009566005097649</v>
       </c>
     </row>
     <row r="76">
@@ -1878,19 +2786,31 @@
         <v>4.580030000000001</v>
       </c>
       <c r="B76" t="n">
-        <v>0.001552543077736062</v>
+        <v>0.00155324801618906</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>-6.233744322878959e-05</v>
       </c>
       <c r="D76" t="n">
-        <v>-6.897452399729352e-05</v>
+        <v>-5.802902256470989e-06</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>3.81173995561981e-05</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.981748845406525e-07</v>
+        <v>6.897204022238318e-05</v>
+      </c>
+      <c r="G76" t="n">
+        <v>8.166287709108537e-05</v>
+      </c>
+      <c r="H76" t="n">
+        <v>4.743303499493288</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.3146642781990845</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1.185825874873322</v>
       </c>
     </row>
     <row r="77">
@@ -1898,19 +2818,31 @@
         <v>4.59008</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0008305644266285884</v>
+        <v>0.0008310520549595677</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>-3.538992858431538e-05</v>
       </c>
       <c r="D77" t="n">
-        <v>-3.54009469807304e-05</v>
+        <v>1.545753146025295e-06</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>2.019342571819021e-05</v>
       </c>
       <c r="F77" t="n">
-        <v>1.663626933128155e-06</v>
+        <v>3.720849254655253e-05</v>
+      </c>
+      <c r="G77" t="n">
+        <v>4.375033745473384e-05</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1.44349606394941</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.8366010544542937</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.3608740159873525</v>
       </c>
     </row>
     <row r="78">
@@ -1918,19 +2850,31 @@
         <v>4.60027</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0006753380533807299</v>
+        <v>0.0006745977386631288</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>9.273534218650465e-05</v>
       </c>
       <c r="D78" t="n">
-        <v>9.19760054588689e-05</v>
+        <v>-1.644997445408598e-05</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>1.666944413297153e-05</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.873700612147517e-05</v>
+        <v>3.037681305922645e-05</v>
+      </c>
+      <c r="G78" t="n">
+        <v>3.755947564902541e-05</v>
+      </c>
+      <c r="H78" t="n">
+        <v>2.842829823673455</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.5844623768635875</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.7107074559183637</v>
       </c>
     </row>
     <row r="79">
@@ -1938,19 +2882,31 @@
         <v>4.60999</v>
       </c>
       <c r="B79" t="n">
-        <v>0.001519422587280602</v>
+        <v>0.001518255671217701</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>0.0003436882327522154</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0003426776393047743</v>
+        <v>-2.521953965295073e-05</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>3.579913867982105e-05</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.596856623035407e-05</v>
+        <v>6.514028743359697e-05</v>
+      </c>
+      <c r="G79" t="n">
+        <v>8.295213826434857e-05</v>
+      </c>
+      <c r="H79" t="n">
+        <v>2.442761081090316</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.6549137883636491</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.6106902702725789</v>
       </c>
     </row>
     <row r="80">
@@ -1958,19 +2914,31 @@
         <v>4.62023</v>
       </c>
       <c r="B80" t="n">
-        <v>0.001701695500564498</v>
+        <v>0.001701858985474557</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>0.000426768055687164</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0004281140177424518</v>
+        <v>-1.965098721035162e-05</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>4.127070261180587e-05</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.382386724529479e-05</v>
+        <v>7.539033053765676e-05</v>
+      </c>
+      <c r="G80" t="n">
+        <v>9.598685841666163e-05</v>
+      </c>
+      <c r="H80" t="n">
+        <v>3.646272907224264</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.4559883723045874</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.9115682268060661</v>
       </c>
     </row>
     <row r="81">
@@ -1978,19 +2946,31 @@
         <v>4.62994</v>
       </c>
       <c r="B81" t="n">
-        <v>0.001241702507385542</v>
+        <v>0.00123996334352091</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>0.0003792967646935226</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0003811057344366132</v>
+        <v>-5.829991731148387e-05</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>2.940168878300789e-05</v>
       </c>
       <c r="F81" t="n">
-        <v>-6.66377957797719e-05</v>
+        <v>5.309110263255467e-05</v>
+      </c>
+      <c r="G81" t="n">
+        <v>6.844633940115643e-05</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1.046601008566723</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.9026493307062342</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.2616502521416808</v>
       </c>
     </row>
     <row r="82">
@@ -1998,19 +2978,31 @@
         <v>4.63517</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0006587636069162418</v>
+        <v>0.0006578616249005651</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>0.0001498283979459077</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0001498624167298924</v>
+        <v>-2.621802569523375e-05</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>1.626243145989144e-05</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.914162747813032e-05</v>
+        <v>2.955809051985004e-05</v>
+      </c>
+      <c r="G82" t="n">
+        <v>3.720184190929513e-05</v>
+      </c>
+      <c r="H82" t="n">
+        <v>2.069333688162058</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.7230081737435243</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.5173334220405145</v>
       </c>
     </row>
     <row r="83">
@@ -2018,19 +3010,31 @@
         <v>4.639959999999999</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0003910738747937273</v>
+        <v>0.0003906813596474118</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>7.392280303741069e-05</v>
       </c>
       <c r="D83" t="n">
-        <v>7.413851898333149e-05</v>
+        <v>-2.244017549848855e-05</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>9.871443590630017e-06</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.344433176091062e-05</v>
+        <v>1.790243989768975e-05</v>
+      </c>
+      <c r="G83" t="n">
+        <v>2.234586197021546e-05</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1.787541697280227</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.7747608721988214</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.4468854243200568</v>
       </c>
     </row>
     <row r="84">
@@ -2038,19 +3042,31 @@
         <v>4.64996</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0003219884051023899</v>
+        <v>0.0003216664382649392</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>3.332951978758886e-05</v>
       </c>
       <c r="D84" t="n">
-        <v>3.21886415498563e-05</v>
+        <v>5.72489670830177e-06</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>8.199768115393365e-06</v>
       </c>
       <c r="F84" t="n">
-        <v>4.79017623645217e-06</v>
+        <v>1.506947721482332e-05</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1.834785178348997e-05</v>
+      </c>
+      <c r="H84" t="n">
+        <v>5.265675190652599</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.2611073781519643</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1.31641879766315</v>
       </c>
     </row>
     <row r="85">
@@ -2058,19 +3074,31 @@
         <v>4.67012</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0001675413885244046</v>
+        <v>0.000167360976594671</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>2.264465622953494e-05</v>
       </c>
       <c r="D85" t="n">
-        <v>2.262420284360608e-05</v>
+        <v>-6.041649111098726e-06</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>4.368697081585019e-06</v>
       </c>
       <c r="F85" t="n">
-        <v>-6.253053835068288e-06</v>
+        <v>7.929882972333643e-06</v>
+      </c>
+      <c r="G85" t="n">
+        <v>9.770329645693598e-06</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.4861986017004065</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.9748305641359346</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.1215496504251016</v>
       </c>
     </row>
     <row r="86">
@@ -2078,19 +3106,31 @@
         <v>4.68015</v>
       </c>
       <c r="B86" t="n">
-        <v>8.785461660611898e-05</v>
+        <v>8.794089570075378e-05</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>1.203177236636019e-05</v>
       </c>
       <c r="D86" t="n">
-        <v>1.19141711417261e-05</v>
+        <v>-2.395522149037447e-06</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>2.45865531609268e-06</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.121422458318941e-06</v>
+        <v>4.514844726032421e-06</v>
+      </c>
+      <c r="G86" t="n">
+        <v>5.599451076294033e-06</v>
+      </c>
+      <c r="H86" t="n">
+        <v>3.512646533729095</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.475958018569667</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.8781616334322737</v>
       </c>
     </row>
     <row r="87">
@@ -2098,19 +3138,31 @@
         <v>4.68993</v>
       </c>
       <c r="B87" t="n">
-        <v>6.747427297100956e-05</v>
+        <v>6.745381315622763e-05</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>9.113319010602635e-06</v>
       </c>
       <c r="D87" t="n">
-        <v>8.988176348947368e-06</v>
+        <v>-2.659375006328795e-06</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>1.882575475783067e-06</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.351721200950985e-06</v>
+        <v>3.442651090641838e-06</v>
+      </c>
+      <c r="G87" t="n">
+        <v>4.259431122188412e-06</v>
+      </c>
+      <c r="H87" t="n">
+        <v>2.747496218399935</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.6009293396832454</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.6868740545999839</v>
       </c>
     </row>
     <row r="88">
@@ -2118,19 +3170,31 @@
         <v>4.71002</v>
       </c>
       <c r="B88" t="n">
-        <v>5.428693334351317e-05</v>
+        <v>5.423014730083963e-05</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>5.033689184164237e-06</v>
       </c>
       <c r="D88" t="n">
-        <v>4.929306553528948e-06</v>
+        <v>1.530637586228951e-06</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>1.428761485870614e-06</v>
       </c>
       <c r="F88" t="n">
-        <v>1.568245596421733e-06</v>
+        <v>2.663749194525477e-06</v>
+      </c>
+      <c r="G88" t="n">
+        <v>3.222930092972299e-06</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1.645659062716417</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.800563399356547</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.4114147656791043</v>
       </c>
     </row>
     <row r="89">
@@ -2138,19 +3202,31 @@
         <v>4.73</v>
       </c>
       <c r="B89" t="n">
-        <v>4.993894033237813e-05</v>
+        <v>4.990943413281275e-05</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>8.377326161488325e-06</v>
       </c>
       <c r="D89" t="n">
-        <v>8.286585035285333e-06</v>
+        <v>-1.0680301874733e-06</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>1.431603541619453e-06</v>
       </c>
       <c r="F89" t="n">
-        <v>-9.667901531291405e-07</v>
+        <v>2.636596469251095e-06</v>
+      </c>
+      <c r="G89" t="n">
+        <v>3.221662213013048e-06</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.7117534107220888</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.9498716153785921</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.1779383526805222</v>
       </c>
     </row>
     <row r="90">
@@ -2158,19 +3234,31 @@
         <v>4.75</v>
       </c>
       <c r="B90" t="n">
-        <v>6.820368416399008e-05</v>
+        <v>6.805144495568246e-05</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>1.003039648908948e-05</v>
       </c>
       <c r="D90" t="n">
-        <v>9.97048682003196e-06</v>
+        <v>1.592101103584442e-06</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>1.941738627717949e-06</v>
       </c>
       <c r="F90" t="n">
-        <v>1.589072545495717e-06</v>
+        <v>3.619086870783804e-06</v>
+      </c>
+      <c r="G90" t="n">
+        <v>4.41210145279745e-06</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1.64278292137124</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.8010830031546632</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.41069573034281</v>
       </c>
     </row>
     <row r="91">
@@ -2178,19 +3266,31 @@
         <v>4.75518</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0001212440948170731</v>
+        <v>0.000121290882445499</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>1.447860592035114e-05</v>
       </c>
       <c r="D91" t="n">
-        <v>1.388886582836797e-05</v>
+        <v>3.849872906920815e-06</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>3.462179658197565e-06</v>
       </c>
       <c r="F91" t="n">
-        <v>4.477912642282561e-06</v>
+        <v>6.420853683747601e-06</v>
+      </c>
+      <c r="G91" t="n">
+        <v>7.852768175081916e-06</v>
+      </c>
+      <c r="H91" t="n">
+        <v>3.715828023331515</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.4458280142962963</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.9289570058328787</v>
       </c>
     </row>
     <row r="92">
@@ -2198,19 +3298,31 @@
         <v>4.75888</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0001394338548282531</v>
+        <v>0.0001392001199903795</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>1.490416737878728e-05</v>
       </c>
       <c r="D92" t="n">
-        <v>1.489742497674231e-05</v>
+        <v>-3.556799551887661e-06</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>3.858410901288813e-06</v>
       </c>
       <c r="F92" t="n">
-        <v>-3.590146475148465e-06</v>
+        <v>6.977214557519092e-06</v>
+      </c>
+      <c r="G92" t="n">
+        <v>8.556033965768451e-06</v>
+      </c>
+      <c r="H92" t="n">
+        <v>2.50324166121891</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.6440554174914477</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.6258104153047275</v>
       </c>
     </row>
     <row r="93">
@@ -2218,19 +3330,31 @@
         <v>4.77004</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0001690139360693293</v>
+        <v>0.0001686282348872446</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>2.261479121372015e-05</v>
       </c>
       <c r="D93" t="n">
-        <v>2.248911595647512e-05</v>
+        <v>1.519526476660943e-06</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>4.57050247764105e-06</v>
       </c>
       <c r="F93" t="n">
-        <v>1.311714492942061e-06</v>
+        <v>8.375353794164484e-06</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1.023250289145219e-05</v>
+      </c>
+      <c r="H93" t="n">
+        <v>2.406518070436265</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.6614496644492023</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.6016295176090664</v>
       </c>
     </row>
     <row r="94">
@@ -2238,19 +3362,31 @@
         <v>4.77502</v>
       </c>
       <c r="B94" t="n">
-        <v>0.000256380241313657</v>
+        <v>0.0002559477512855861</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>4.13483849008662e-05</v>
       </c>
       <c r="D94" t="n">
-        <v>4.127847895041645e-05</v>
+        <v>-2.861290248514241e-06</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>6.621379553836593e-06</v>
       </c>
       <c r="F94" t="n">
-        <v>-3.724896774982533e-06</v>
+        <v>1.21022115074147e-05</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1.497185353356577e-05</v>
+      </c>
+      <c r="H94" t="n">
+        <v>2.612857811642896</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.6245471163885211</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.6532144529107239</v>
       </c>
     </row>
     <row r="95">
@@ -2258,19 +3394,31 @@
         <v>4.780180000000001</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0005446066761259368</v>
+        <v>0.0005434693804299464</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>0.0001430697271002927</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0001443215998051196</v>
+        <v>-5.235443845060873e-05</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>1.379712294438967e-05</v>
       </c>
       <c r="F95" t="n">
-        <v>-5.721439481166956e-05</v>
+        <v>2.465951261579578e-05</v>
+      </c>
+      <c r="G95" t="n">
+        <v>3.165919918166171e-05</v>
+      </c>
+      <c r="H95" t="n">
+        <v>3.433046646585715</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.4881314959403467</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.8582616616464287</v>
       </c>
     </row>
     <row r="96">
@@ -2278,19 +3426,31 @@
         <v>4.79012</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0006786886403507574</v>
+        <v>0.0006779544057382148</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>0.0001578095022144716</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0001572277093260643</v>
+        <v>1.173197066381155e-07</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>1.636470031964993e-05</v>
       </c>
       <c r="F96" t="n">
-        <v>-4.727469438677575e-06</v>
+        <v>3.017506648570709e-05</v>
+      </c>
+      <c r="G96" t="n">
+        <v>3.81238984591299e-05</v>
+      </c>
+      <c r="H96" t="n">
+        <v>2.48259412966529</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.6477552725714676</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.6206485324163226</v>
       </c>
     </row>
     <row r="97">
@@ -2298,19 +3458,31 @@
         <v>4.799919999999999</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0005590327736204807</v>
+        <v>0.0005590959601993212</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>0.0001168452171391567</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0001166104104693343</v>
+        <v>-3.832648952269905e-06</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>1.346783016561027e-05</v>
       </c>
       <c r="F97" t="n">
-        <v>-4.601143426836174e-06</v>
+        <v>2.488391200802179e-05</v>
+      </c>
+      <c r="G97" t="n">
+        <v>3.119737769620894e-05</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1.276448453366942</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.8653585406287094</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.3191121133417356</v>
       </c>
     </row>
     <row r="98">
@@ -2318,19 +3490,31 @@
         <v>4.81003</v>
       </c>
       <c r="B98" t="n">
-        <v>0.000268040007390799</v>
+        <v>0.0002677043963869258</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>5.925733580491892e-05</v>
       </c>
       <c r="D98" t="n">
-        <v>5.920218106033663e-05</v>
+        <v>9.664317103882806e-06</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>7.090108763280468e-06</v>
       </c>
       <c r="F98" t="n">
-        <v>8.229128851408462e-06</v>
+        <v>1.330780431418842e-05</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1.660185159799599e-05</v>
+      </c>
+      <c r="H98" t="n">
+        <v>2.594268426242376</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.6278387824107745</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.648567106560594</v>
       </c>
     </row>
     <row r="99">
@@ -2338,19 +3522,31 @@
         <v>4.81216</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0001294295617436089</v>
+        <v>0.0001291458700294583</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>3.202338139312271e-05</v>
       </c>
       <c r="D99" t="n">
-        <v>3.200928373747447e-05</v>
+        <v>7.49395415719701e-07</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>3.647841215661117e-06</v>
       </c>
       <c r="F99" t="n">
-        <v>4.822474694562891e-07</v>
+        <v>6.866334551395381e-06</v>
+      </c>
+      <c r="G99" t="n">
+        <v>8.467504454413192e-06</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.5088245802502648</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.9726362388425437</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.1272061450625662</v>
       </c>
     </row>
     <row r="100">
@@ -2358,19 +3554,31 @@
         <v>4.81527</v>
       </c>
       <c r="B100" t="n">
-        <v>8.005024165864148e-05</v>
+        <v>7.985141279693942e-05</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>2.103418435710584e-05</v>
       </c>
       <c r="D100" t="n">
-        <v>2.101875938157342e-05</v>
+        <v>2.497934412293824e-06</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>2.310759537326304e-06</v>
       </c>
       <c r="F100" t="n">
-        <v>2.320191359716695e-06</v>
+        <v>4.356837150114939e-06</v>
+      </c>
+      <c r="G100" t="n">
+        <v>5.35036602800701e-06</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1.372914910652706</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.8488886065699264</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.3432287276631765</v>
       </c>
     </row>
     <row r="101">
@@ -2378,19 +3586,31 @@
         <v>4.82006</v>
       </c>
       <c r="B101" t="n">
-        <v>4.353053739679214e-05</v>
+        <v>4.359624892216887e-05</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1.072817751302426e-05</v>
       </c>
       <c r="D101" t="n">
-        <v>1.075576987125452e-05</v>
+        <v>-2.596245866593334e-06</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>1.325017990487822e-06</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.494667287960182e-06</v>
+        <v>2.495590258497859e-06</v>
+      </c>
+      <c r="G101" t="n">
+        <v>3.045502774635284e-06</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.5137488229291316</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.9721488015997904</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.1284372057322829</v>
       </c>
     </row>
     <row r="102">
@@ -2398,19 +3618,31 @@
         <v>4.82989</v>
       </c>
       <c r="B102" t="n">
-        <v>2.799780278940492e-05</v>
+        <v>2.812244726150871e-05</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>3.478805253639844e-06</v>
       </c>
       <c r="D102" t="n">
-        <v>3.640822545246507e-06</v>
+        <v>-3.822222586112118e-07</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>8.441515595810187e-07</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.597662408419491e-07</v>
+        <v>1.595386344251061e-06</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1.943438478890544e-06</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1.867832846085807</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.7600513809266267</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.4669582115214517</v>
       </c>
     </row>
     <row r="103">
@@ -2418,19 +3650,31 @@
         <v>4.85003</v>
       </c>
       <c r="B103" t="n">
-        <v>2.002242985222826e-05</v>
+        <v>2.005535538342563e-05</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>1.751714230177104e-06</v>
       </c>
       <c r="D103" t="n">
-        <v>1.749274918045344e-06</v>
+        <v>2.358273607673424e-06</v>
       </c>
       <c r="E103" t="n">
-        <v>0</v>
+        <v>6.830593267790612e-07</v>
       </c>
       <c r="F103" t="n">
-        <v>2.463712970298008e-06</v>
+        <v>1.30018567852934e-06</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1.53335550502267e-06</v>
+      </c>
+      <c r="H103" t="n">
+        <v>4.300969420581417</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.3668037214219076</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1.075242355145354</v>
       </c>
     </row>
     <row r="104">
@@ -2438,19 +3682,31 @@
         <v>4.86629</v>
       </c>
       <c r="B104" t="n">
-        <v>1.974508644843263e-05</v>
+        <v>1.975260911769465e-05</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>3.025828464627069e-06</v>
       </c>
       <c r="D104" t="n">
-        <v>2.907658853951389e-06</v>
+        <v>1.812708765845133e-06</v>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>7.106705648436277e-07</v>
       </c>
       <c r="F104" t="n">
-        <v>2.109086636541844e-06</v>
+        <v>1.40648122133062e-06</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1.659187290643945e-06</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1.375603506969693</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.8484239654881154</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.3439008767424231</v>
       </c>
     </row>
     <row r="105">
@@ -2458,19 +3714,31 @@
         <v>4.88989</v>
       </c>
       <c r="B105" t="n">
-        <v>2.27168246835145e-05</v>
+        <v>2.286114505239086e-05</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>4.027308372614897e-06</v>
       </c>
       <c r="D105" t="n">
-        <v>3.88847153741889e-06</v>
+        <v>1.233258075049659e-06</v>
       </c>
       <c r="E105" t="n">
-        <v>0</v>
+        <v>7.011097551266667e-07</v>
       </c>
       <c r="F105" t="n">
-        <v>1.674564214576833e-06</v>
+        <v>1.319255913248736e-06</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1.659882053037369e-06</v>
+      </c>
+      <c r="H105" t="n">
+        <v>5.794642952301102</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.2150183383248137</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1.448660738075275</v>
       </c>
     </row>
     <row r="106">
@@ -2478,19 +3746,31 @@
         <v>4.89991</v>
       </c>
       <c r="B106" t="n">
-        <v>4.313248744654314e-05</v>
+        <v>4.303010775096208e-05</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>3.174713665113632e-06</v>
       </c>
       <c r="D106" t="n">
-        <v>3.082094260539746e-06</v>
+        <v>-2.647239592029868e-06</v>
       </c>
       <c r="E106" t="n">
-        <v>0</v>
+        <v>1.356296383937414e-06</v>
       </c>
       <c r="F106" t="n">
-        <v>-2.651838858274727e-06</v>
+        <v>2.4984368848317e-06</v>
+      </c>
+      <c r="G106" t="n">
+        <v>2.95134285471358e-06</v>
+      </c>
+      <c r="H106" t="n">
+        <v>2.554501264078938</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.6349038049379336</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.6386253160197345</v>
       </c>
     </row>
     <row r="107">
@@ -2498,19 +3778,31 @@
         <v>4.910130000000001</v>
       </c>
       <c r="B107" t="n">
-        <v>6.238715749587872e-05</v>
+        <v>6.236254404875532e-05</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>-2.888089080329908e-06</v>
       </c>
       <c r="D107" t="n">
-        <v>-3.207643160180496e-06</v>
+        <v>1.202947579120712e-06</v>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>1.71334467498856e-06</v>
       </c>
       <c r="F107" t="n">
-        <v>1.72802067734024e-06</v>
+        <v>3.18006983198464e-06</v>
+      </c>
+      <c r="G107" t="n">
+        <v>3.741559076922819e-06</v>
+      </c>
+      <c r="H107" t="n">
+        <v>2.369461862846895</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.6681528902782241</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.5923654657117238</v>
       </c>
     </row>
     <row r="108">
@@ -2518,19 +3810,31 @@
         <v>4.91996</v>
       </c>
       <c r="B108" t="n">
-        <v>7.83318479609716e-05</v>
+        <v>7.828975085040718e-05</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>-3.097884556309562e-06</v>
       </c>
       <c r="D108" t="n">
-        <v>-3.615291397548551e-06</v>
+        <v>-2.28275600540463e-06</v>
       </c>
       <c r="E108" t="n">
-        <v>0</v>
+        <v>2.188873963051515e-06</v>
       </c>
       <c r="F108" t="n">
-        <v>-1.996956033762533e-06</v>
+        <v>4.090199282012104e-06</v>
+      </c>
+      <c r="G108" t="n">
+        <v>4.636689115455678e-06</v>
+      </c>
+      <c r="H108" t="n">
+        <v>2.310384246944839</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.6788790808384932</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.5775960617362097</v>
       </c>
     </row>
     <row r="109">
@@ -2538,19 +3842,31 @@
         <v>4.92615</v>
       </c>
       <c r="B109" t="n">
-        <v>7.995816395607992e-05</v>
+        <v>8.005925344729428e-05</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>-1.189892187318062e-06</v>
       </c>
       <c r="D109" t="n">
-        <v>-1.003326529093139e-06</v>
+        <v>-2.369932479211282e-07</v>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>2.007198513529048e-06</v>
       </c>
       <c r="F109" t="n">
-        <v>-2.733178744043491e-07</v>
+        <v>3.709470961127657e-06</v>
+      </c>
+      <c r="G109" t="n">
+        <v>4.413256196657867e-06</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1.236874668410629</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.8719909278138743</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.3092186671026572</v>
       </c>
     </row>
     <row r="110">
@@ -2558,19 +3874,31 @@
         <v>4.930190000000001</v>
       </c>
       <c r="B110" t="n">
-        <v>8.03775851223998e-05</v>
+        <v>8.051343327940105e-05</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>1.83279452594723e-06</v>
       </c>
       <c r="D110" t="n">
-        <v>1.564242139413321e-06</v>
+        <v>2.766348476032339e-07</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>2.178698562820707e-06</v>
       </c>
       <c r="F110" t="n">
-        <v>7.11778415923755e-07</v>
+        <v>4.073074980100918e-06</v>
+      </c>
+      <c r="G110" t="n">
+        <v>4.894085151372615e-06</v>
+      </c>
+      <c r="H110" t="n">
+        <v>4.411724388504501</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.3531433814789625</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1.102931097126125</v>
       </c>
     </row>
     <row r="111">
@@ -2578,19 +3906,31 @@
         <v>4.93692</v>
       </c>
       <c r="B111" t="n">
-        <v>7.736032583851491e-05</v>
+        <v>7.730201155738413e-05</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>4.108230398532909e-06</v>
       </c>
       <c r="D111" t="n">
-        <v>3.920344392480965e-06</v>
+        <v>2.931869825201357e-06</v>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>1.951689723933494e-06</v>
       </c>
       <c r="F111" t="n">
-        <v>2.724882249635815e-06</v>
+        <v>3.597493516551698e-06</v>
+      </c>
+      <c r="G111" t="n">
+        <v>4.381808086239735e-06</v>
+      </c>
+      <c r="H111" t="n">
+        <v>3.348731314731211</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.5012484249690992</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.8371828286828028</v>
       </c>
     </row>
     <row r="112">
@@ -2598,19 +3938,31 @@
         <v>4.94675</v>
       </c>
       <c r="B112" t="n">
-        <v>8.044939016698061e-05</v>
+        <v>8.053737828075074e-05</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>2.133281569838044e-06</v>
       </c>
       <c r="D112" t="n">
-        <v>1.910233361428801e-06</v>
+        <v>2.505312367466099e-06</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>2.040405434542258e-06</v>
       </c>
       <c r="F112" t="n">
-        <v>2.2005287685985e-06</v>
+        <v>3.766772205642989e-06</v>
+      </c>
+      <c r="G112" t="n">
+        <v>4.585204940613306e-06</v>
+      </c>
+      <c r="H112" t="n">
+        <v>5.368715971713251</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.2515127238074939</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1.342178992928313</v>
       </c>
     </row>
     <row r="113">
@@ -2618,19 +3970,31 @@
         <v>4.95027</v>
       </c>
       <c r="B113" t="n">
-        <v>8.074304920806619e-05</v>
+        <v>8.059716834255569e-05</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>9.867669440087469e-06</v>
       </c>
       <c r="D113" t="n">
-        <v>9.617500006969837e-06</v>
+        <v>3.257399560103997e-07</v>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>2.192396126423697e-06</v>
       </c>
       <c r="F113" t="n">
-        <v>4.899075837412142e-08</v>
+        <v>4.047470117422934e-06</v>
+      </c>
+      <c r="G113" t="n">
+        <v>4.969384545631878e-06</v>
+      </c>
+      <c r="H113" t="n">
+        <v>4.51523024929153</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.3407453844235769</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1.128807562322883</v>
       </c>
     </row>
     <row r="114">
@@ -2638,19 +4002,31 @@
         <v>4.95676</v>
       </c>
       <c r="B114" t="n">
-        <v>8.570072122041012e-05</v>
+        <v>8.574269057077089e-05</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>4.219351505983047e-06</v>
       </c>
       <c r="D114" t="n">
-        <v>4.321604251148142e-06</v>
+        <v>5.052717385661175e-06</v>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
+        <v>2.167780681882548e-06</v>
       </c>
       <c r="F114" t="n">
-        <v>4.979044988269373e-06</v>
+        <v>4.062464197705407e-06</v>
+      </c>
+      <c r="G114" t="n">
+        <v>4.871873685929901e-06</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.6880865554082445</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.9527899246622027</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.1720216388520611</v>
       </c>
     </row>
     <row r="115">
@@ -2658,19 +4034,31 @@
         <v>4.961869999999999</v>
       </c>
       <c r="B115" t="n">
-        <v>9.034216867090089e-05</v>
+        <v>9.03497254728422e-05</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>8.576556274511867e-06</v>
       </c>
       <c r="D115" t="n">
-        <v>8.409821881520193e-06</v>
+        <v>2.528748466880555e-06</v>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>2.257625171830667e-06</v>
       </c>
       <c r="F115" t="n">
-        <v>2.508871318017056e-06</v>
+        <v>4.188176499158859e-06</v>
+      </c>
+      <c r="G115" t="n">
+        <v>5.100264237796984e-06</v>
+      </c>
+      <c r="H115" t="n">
+        <v>2.149675013578844</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.7082524605478961</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.5374187533947111</v>
       </c>
     </row>
     <row r="116">
@@ -2678,19 +4066,31 @@
         <v>4.96475</v>
       </c>
       <c r="B116" t="n">
-        <v>9.481554340494221e-05</v>
+        <v>9.481460698216047e-05</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>6.870578821652115e-06</v>
       </c>
       <c r="D116" t="n">
-        <v>6.758689102969499e-06</v>
+        <v>3.990390577143294e-06</v>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
+        <v>2.389495770535737e-06</v>
       </c>
       <c r="F116" t="n">
-        <v>4.173929805900977e-06</v>
+        <v>4.451540804753534e-06</v>
+      </c>
+      <c r="G116" t="n">
+        <v>5.358079610190282e-06</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1.37770029161308</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.8480614039132912</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.34442507290327</v>
       </c>
     </row>
     <row r="117">
@@ -2698,19 +4098,31 @@
         <v>4.96787</v>
       </c>
       <c r="B117" t="n">
-        <v>9.592863153921229e-05</v>
+        <v>9.588857785734268e-05</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>1.152956594079402e-05</v>
       </c>
       <c r="D117" t="n">
-        <v>1.145188406457735e-05</v>
+        <v>3.186219196129556e-06</v>
       </c>
       <c r="E117" t="n">
-        <v>0</v>
+        <v>2.431428625228708e-06</v>
       </c>
       <c r="F117" t="n">
-        <v>2.84301460638204e-06</v>
+        <v>4.500976637769638e-06</v>
+      </c>
+      <c r="G117" t="n">
+        <v>5.551985274833492e-06</v>
+      </c>
+      <c r="H117" t="n">
+        <v>2.636073560145446</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.6204463329271497</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.6590183900363614</v>
       </c>
     </row>
     <row r="118">
@@ -2718,19 +4130,31 @@
         <v>4.97004</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0001003589388186783</v>
+        <v>0.0001002061536052282</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>1.21171451926435e-05</v>
       </c>
       <c r="D118" t="n">
-        <v>1.188302514676273e-05</v>
+        <v>8.78702498721413e-07</v>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>2.667243805163513e-06</v>
       </c>
       <c r="F118" t="n">
-        <v>1.432425080870933e-07</v>
+        <v>4.880300897504616e-06</v>
+      </c>
+      <c r="G118" t="n">
+        <v>6.03810045440104e-06</v>
+      </c>
+      <c r="H118" t="n">
+        <v>6.615594987168596</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.1576511272859931</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1.653898746792149</v>
       </c>
     </row>
     <row r="119">
@@ -2738,19 +4162,31 @@
         <v>4.9728</v>
       </c>
       <c r="B119" t="n">
-        <v>9.759080525866604e-05</v>
+        <v>9.756845695368279e-05</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>1.347218519267289e-05</v>
       </c>
       <c r="D119" t="n">
-        <v>1.340202435246309e-05</v>
+        <v>4.168574844158986e-06</v>
       </c>
       <c r="E119" t="n">
-        <v>0</v>
+        <v>2.357286468594046e-06</v>
       </c>
       <c r="F119" t="n">
-        <v>3.671684819151032e-06</v>
+        <v>4.37063029496987e-06</v>
+      </c>
+      <c r="G119" t="n">
+        <v>5.431527761130284e-06</v>
+      </c>
+      <c r="H119" t="n">
+        <v>2.428328405567246</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.6575140110459186</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.6070821013918115</v>
       </c>
     </row>
     <row r="120">
@@ -2758,19 +4194,31 @@
         <v>4.97463</v>
       </c>
       <c r="B120" t="n">
-        <v>9.724648991134781e-05</v>
+        <v>9.735176622537079e-05</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>1.289751589752988e-05</v>
       </c>
       <c r="D120" t="n">
-        <v>1.244116223500167e-05</v>
+        <v>5.2761326509187e-07</v>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>2.461780388067795e-06</v>
       </c>
       <c r="F120" t="n">
-        <v>8.061473004883658e-07</v>
+        <v>4.569248989489507e-06</v>
+      </c>
+      <c r="G120" t="n">
+        <v>5.563487959779863e-06</v>
+      </c>
+      <c r="H120" t="n">
+        <v>3.40169521433668</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.4929823263146181</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.8504238035841699</v>
       </c>
     </row>
     <row r="121">
@@ -2778,19 +4226,31 @@
         <v>4.98471</v>
       </c>
       <c r="B121" t="n">
-        <v>8.089729524675603e-05</v>
+        <v>8.081944266589945e-05</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>7.669973203195126e-06</v>
       </c>
       <c r="D121" t="n">
-        <v>7.61852265273912e-06</v>
+        <v>4.315457832553446e-06</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>2.055038788388675e-06</v>
       </c>
       <c r="F121" t="n">
-        <v>4.213145396709002e-06</v>
+        <v>3.823223683397567e-06</v>
+      </c>
+      <c r="G121" t="n">
+        <v>4.656400130086814e-06</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1.175451768957862</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.8821235500349397</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.2938629422394655</v>
       </c>
     </row>
     <row r="122">
@@ -2798,19 +4258,31 @@
         <v>4.990069999999999</v>
       </c>
       <c r="B122" t="n">
-        <v>7.915331254162537e-05</v>
+        <v>7.928286831460703e-05</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>1.342379456002225e-05</v>
       </c>
       <c r="D122" t="n">
-        <v>1.384493007647819e-05</v>
+        <v>7.701077330904145e-07</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>2.168992275713557e-06</v>
       </c>
       <c r="F122" t="n">
-        <v>1.116047399846236e-07</v>
+        <v>4.013520386002332e-06</v>
+      </c>
+      <c r="G122" t="n">
+        <v>4.984237033364928e-06</v>
+      </c>
+      <c r="H122" t="n">
+        <v>4.566899031658438</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.3346885221145697</v>
+      </c>
+      <c r="J122" t="n">
+        <v>1.141724757914609</v>
       </c>
     </row>
     <row r="123">
@@ -2818,19 +4290,31 @@
         <v>4.994669999999999</v>
       </c>
       <c r="B123" t="n">
-        <v>6.315480771761669e-05</v>
+        <v>6.320130081869853e-05</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>7.242027414042712e-06</v>
       </c>
       <c r="D123" t="n">
-        <v>7.019326291010903e-06</v>
+        <v>2.092439789561871e-06</v>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>1.649608839246381e-06</v>
       </c>
       <c r="F123" t="n">
-        <v>2.110020890624489e-06</v>
+        <v>3.07962948868032e-06</v>
+      </c>
+      <c r="G123" t="n">
+        <v>3.765973271960743e-06</v>
+      </c>
+      <c r="H123" t="n">
+        <v>4.053532039141118</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.3988095516055012</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1.013383009785279</v>
       </c>
     </row>
     <row r="124">
@@ -2838,19 +4322,31 @@
         <v>5.00464</v>
       </c>
       <c r="B124" t="n">
-        <v>5.031091940958432e-05</v>
+        <v>5.029468989393466e-05</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>5.269597493209744e-06</v>
       </c>
       <c r="D124" t="n">
-        <v>5.211611994174707e-06</v>
+        <v>3.86455670568016e-07</v>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>1.318003161528578e-06</v>
       </c>
       <c r="F124" t="n">
-        <v>4.6852115692009e-07</v>
+        <v>2.456395387742346e-06</v>
+      </c>
+      <c r="G124" t="n">
+        <v>2.961390872881419e-06</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.278235875365174</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.9911754532614045</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.06955896884129349</v>
       </c>
     </row>
     <row r="125">
@@ -2858,19 +4354,31 @@
         <v>5.00999</v>
       </c>
       <c r="B125" t="n">
-        <v>5.382833268949138e-05</v>
+        <v>5.374696744306446e-05</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>5.79855860482446e-06</v>
       </c>
       <c r="D125" t="n">
-        <v>5.662376616479877e-06</v>
+        <v>2.505668346706446e-06</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>1.607673211916047e-06</v>
       </c>
       <c r="F125" t="n">
-        <v>2.67720870967967e-06</v>
+        <v>3.031628262804652e-06</v>
+      </c>
+      <c r="G125" t="n">
+        <v>3.612586185442861e-06</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1.011116964235975</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.9081056356844293</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.2527792410589937</v>
       </c>
     </row>
     <row r="126">
@@ -2878,19 +4386,31 @@
         <v>5.01484</v>
       </c>
       <c r="B126" t="n">
-        <v>6.802908093107301e-05</v>
+        <v>6.79367956247075e-05</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>1.1958445634947e-05</v>
       </c>
       <c r="D126" t="n">
-        <v>1.191881532367751e-05</v>
+        <v>1.952917957508682e-06</v>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>1.794722373479732e-06</v>
       </c>
       <c r="F126" t="n">
-        <v>1.616126586480357e-06</v>
+        <v>3.349740704402263e-06</v>
+      </c>
+      <c r="G126" t="n">
+        <v>4.152611830216179e-06</v>
+      </c>
+      <c r="H126" t="n">
+        <v>2.76437239179567</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.5979981850099949</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.6910930979489174</v>
       </c>
     </row>
     <row r="127">
@@ -2898,19 +4418,31 @@
         <v>5.01774</v>
       </c>
       <c r="B127" t="n">
-        <v>9.251709254482231e-05</v>
+        <v>9.243140812667637e-05</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>1.290263260525418e-05</v>
       </c>
       <c r="D127" t="n">
-        <v>1.295144794915675e-05</v>
+        <v>4.587945084714225e-06</v>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>2.351773014408291e-06</v>
       </c>
       <c r="F127" t="n">
-        <v>4.293436449977173e-06</v>
+        <v>4.377701898072179e-06</v>
+      </c>
+      <c r="G127" t="n">
+        <v>5.362794409196528e-06</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1.428657463268099</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.8391992314081619</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.3571643658170248</v>
       </c>
     </row>
     <row r="128">
@@ -2918,19 +4450,31 @@
         <v>5.01786</v>
       </c>
       <c r="B128" t="n">
-        <v>8.945964681536273e-05</v>
+        <v>8.944761907995254e-05</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>1.094521400650955e-05</v>
       </c>
       <c r="D128" t="n">
-        <v>1.086063051757251e-05</v>
+        <v>-1.640710653140411e-07</v>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
+        <v>2.272033574448496e-06</v>
       </c>
       <c r="F128" t="n">
-        <v>-9.4486706606196e-08</v>
+        <v>4.205208685802096e-06</v>
+      </c>
+      <c r="G128" t="n">
+        <v>5.121695233173147e-06</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.08449339297810801</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.9991323483167492</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.021123348244527</v>
       </c>
     </row>
     <row r="129">
@@ -2938,19 +4482,31 @@
         <v>5.019819999999999</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0001446806597349991</v>
+        <v>0.0001445290583612962</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>2.508983945684078e-05</v>
       </c>
       <c r="D129" t="n">
-        <v>2.499734325429211e-05</v>
+        <v>-1.143887154604742e-06</v>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>3.624359814654333e-06</v>
       </c>
       <c r="F129" t="n">
-        <v>-1.365111199409123e-06</v>
+        <v>6.677111462816961e-06</v>
+      </c>
+      <c r="G129" t="n">
+        <v>8.221894806715653e-06</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.3997294456099263</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0.9824990488198407</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.09993236140248159</v>
       </c>
     </row>
     <row r="130">
@@ -2958,19 +4514,31 @@
         <v>5.0248</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0002653228579943458</v>
+        <v>0.0002654218462851948</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>4.651731325884968e-05</v>
       </c>
       <c r="D130" t="n">
-        <v>4.663677998894224e-05</v>
+        <v>-1.568071632227538e-05</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>6.684380396833459e-06</v>
       </c>
       <c r="F130" t="n">
-        <v>-1.589234552466876e-05</v>
+        <v>1.223712881807729e-05</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1.50648146971609e-05</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.5106328388533453</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0.9724576503959843</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.1276582097133363</v>
       </c>
     </row>
     <row r="131">
@@ -2978,19 +4546,31 @@
         <v>5.027830000000001</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0002924619210172752</v>
+        <v>0.0002924098546776279</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>5.297401997188036e-05</v>
       </c>
       <c r="D131" t="n">
-        <v>5.282110326073967e-05</v>
+        <v>-1.959240989753738e-05</v>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>7.470822180918434e-06</v>
       </c>
       <c r="F131" t="n">
-        <v>-1.969271216821685e-05</v>
+        <v>1.364926284675868e-05</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1.690132653449153e-05</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.09463599870067094</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0.9989151995529194</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.02365899967516773</v>
       </c>
     </row>
     <row r="132">
@@ -2998,19 +4578,31 @@
         <v>5.0301</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0003085624705153005</v>
+        <v>0.0003083972079370072</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>4.961898062551815e-05</v>
       </c>
       <c r="D132" t="n">
-        <v>4.881217780252203e-05</v>
+        <v>1.41589589011776e-05</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>8.062823231832421e-06</v>
       </c>
       <c r="F132" t="n">
-        <v>1.098021870836897e-05</v>
+        <v>1.506154307461126e-05</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1.865695080576012e-05</v>
+      </c>
+      <c r="H132" t="n">
+        <v>5.613533197772637</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0.2299286048887061</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1.403383299443159</v>
       </c>
     </row>
     <row r="133">
@@ -3018,19 +4610,31 @@
         <v>5.032780000000001</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0003474556118907065</v>
+        <v>0.0003479607421837483</v>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>6.537831936827669e-05</v>
       </c>
       <c r="D133" t="n">
-        <v>6.574397869647205e-05</v>
+        <v>3.287651417677704e-06</v>
       </c>
       <c r="E133" t="n">
-        <v>0</v>
+        <v>8.57928586185629e-06</v>
       </c>
       <c r="F133" t="n">
-        <v>3.611442915259086e-06</v>
+        <v>1.603051236934092e-05</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1.982422243059751e-05</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.4478379019749426</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0.9783762339800469</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.1119594754937356</v>
       </c>
     </row>
     <row r="134">
@@ -3038,19 +4642,31 @@
         <v>5.0359</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0003999038068333059</v>
+        <v>0.0003997001649766632</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>6.793209919950065e-05</v>
       </c>
       <c r="D134" t="n">
-        <v>6.807056731786677e-05</v>
+        <v>-5.405570038694951e-06</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>9.681114521542251e-06</v>
       </c>
       <c r="F134" t="n">
-        <v>-5.777772315892627e-06</v>
+        <v>1.781926786945079e-05</v>
+      </c>
+      <c r="G134" t="n">
+        <v>2.206358190955243e-05</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0.1469984477866854</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0.9974277055084297</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.03674961194667136</v>
       </c>
     </row>
     <row r="135">
@@ -3058,19 +4674,31 @@
         <v>5.03871</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0004188630159118815</v>
+        <v>0.0004191769375399968</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>8.052314569811537e-05</v>
       </c>
       <c r="D135" t="n">
-        <v>8.055425703430473e-05</v>
+        <v>-9.597420829373813e-06</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>1.012185508038212e-05</v>
       </c>
       <c r="F135" t="n">
-        <v>-9.520033746006127e-06</v>
+        <v>1.86833621383264e-05</v>
+      </c>
+      <c r="G135" t="n">
+        <v>2.316263995920061e-05</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.1686250726042015</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0.9966393026093584</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.04215626815105038</v>
       </c>
     </row>
     <row r="136">
@@ -3078,19 +4706,31 @@
         <v>5.041980000000001</v>
       </c>
       <c r="B136" t="n">
-        <v>0.0004058994000255052</v>
+        <v>0.0004060053153304156</v>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>8.285381304225139e-05</v>
       </c>
       <c r="D136" t="n">
-        <v>8.364841345818629e-05</v>
+        <v>3.325407254791725e-06</v>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
+        <v>1.006262932100019e-05</v>
       </c>
       <c r="F136" t="n">
-        <v>2.629276059455684e-06</v>
+        <v>1.871915998158738e-05</v>
+      </c>
+      <c r="G136" t="n">
+        <v>2.326191648317169e-05</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.2881715107836291</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0.9905648884003054</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.07204287769590727</v>
       </c>
     </row>
     <row r="137">
@@ -3098,19 +4738,31 @@
         <v>5.04479</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0003710846977265667</v>
+        <v>0.0003709549677656545</v>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>7.108554370564767e-05</v>
       </c>
       <c r="D137" t="n">
-        <v>7.094063871823951e-05</v>
+        <v>-5.284882614985586e-06</v>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>9.139074651818212e-06</v>
       </c>
       <c r="F137" t="n">
-        <v>-5.991409537395213e-06</v>
+        <v>1.684920697129614e-05</v>
+      </c>
+      <c r="G137" t="n">
+        <v>2.082384046021863e-05</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.2879911664948369</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0.9905761344878212</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.07199779162370921</v>
       </c>
     </row>
     <row r="138">
@@ -3118,19 +4770,31 @@
         <v>5.04997</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0002953817286845165</v>
+        <v>0.0002953493638771857</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>7.618843326022537e-05</v>
       </c>
       <c r="D138" t="n">
-        <v>7.623683141978848e-05</v>
+        <v>-3.573870744791958e-06</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>7.529580195810379e-06</v>
       </c>
       <c r="F138" t="n">
-        <v>-4.352718164746147e-06</v>
+        <v>1.399062147966196e-05</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1.76307157729707e-05</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1.808553994238439</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0.7709169799268689</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.4521384985596097</v>
       </c>
     </row>
     <row r="139">
@@ -3138,19 +4802,31 @@
         <v>5.05484</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0002113497963841106</v>
+        <v>0.0002110221969567578</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>5.608551432223503e-05</v>
       </c>
       <c r="D139" t="n">
-        <v>5.593766727493748e-05</v>
+        <v>-1.25752137121153e-05</v>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>5.360549500178153e-06</v>
       </c>
       <c r="F139" t="n">
-        <v>-1.349617248755434e-05</v>
+        <v>9.773433032965173e-06</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1.22520441886516e-05</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.9297126476921821</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0.9202598909705736</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.2324281619230455</v>
       </c>
     </row>
     <row r="140">
@@ -3158,19 +4834,31 @@
         <v>5.06488</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0001420047762457885</v>
+        <v>0.0001422401898870142</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>3.066757756924792e-05</v>
       </c>
       <c r="D140" t="n">
-        <v>3.060543926288926e-05</v>
+        <v>-2.475535312923105e-06</v>
       </c>
       <c r="E140" t="n">
-        <v>0</v>
+        <v>3.790545909049786e-06</v>
       </c>
       <c r="F140" t="n">
-        <v>-2.070976368451143e-06</v>
+        <v>7.044101413056343e-06</v>
+      </c>
+      <c r="G140" t="n">
+        <v>8.735500111764333e-06</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.4405033592229292</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0.9790284786166578</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.1101258398057323</v>
       </c>
     </row>
     <row r="141">
@@ -3178,19 +4866,31 @@
         <v>5.06991</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0001152820462775585</v>
+        <v>0.0001154367740570567</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>2.362818412740059e-05</v>
       </c>
       <c r="D141" t="n">
-        <v>2.44618721782247e-05</v>
+        <v>7.130256219309246e-06</v>
       </c>
       <c r="E141" t="n">
-        <v>0</v>
+        <v>3.341716402416133e-06</v>
       </c>
       <c r="F141" t="n">
-        <v>6.396896728164316e-06</v>
+        <v>6.371146721708663e-06</v>
+      </c>
+      <c r="G141" t="n">
+        <v>7.831491999960573e-06</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1.774351940333724</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0.7771713275077231</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.4435879850834309</v>
       </c>
     </row>
     <row r="142">
@@ -3198,19 +4898,31 @@
         <v>5.07448</v>
       </c>
       <c r="B142" t="n">
-        <v>9.342930342212303e-05</v>
+        <v>9.36829424705948e-05</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>2.054420362516921e-05</v>
       </c>
       <c r="D142" t="n">
-        <v>2.035843286841213e-05</v>
+        <v>3.514371421162036e-07</v>
       </c>
       <c r="E142" t="n">
-        <v>0</v>
+        <v>2.550939341154419e-06</v>
       </c>
       <c r="F142" t="n">
-        <v>7.246702439023296e-07</v>
+        <v>4.819178731644578e-06</v>
+      </c>
+      <c r="G142" t="n">
+        <v>5.868980902068914e-06</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1.278438890040989</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0.8650229292121264</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.3196097225102473</v>
       </c>
     </row>
     <row r="143">
@@ -3218,19 +4930,31 @@
         <v>5.08419</v>
       </c>
       <c r="B143" t="n">
-        <v>7.988411803689253e-05</v>
+        <v>8.003191352160411e-05</v>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>1.733807461647544e-05</v>
       </c>
       <c r="D143" t="n">
-        <v>1.706292855508841e-05</v>
+        <v>3.230323110986664e-06</v>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>2.362446369406658e-06</v>
       </c>
       <c r="F143" t="n">
-        <v>4.043544718885489e-06</v>
+        <v>4.439792858489669e-06</v>
+      </c>
+      <c r="G143" t="n">
+        <v>5.490132681938885e-06</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1.970992912806839</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0.741094249435623</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.4927482282017098</v>
       </c>
     </row>
     <row r="144">
@@ -3238,19 +4962,31 @@
         <v>5.08999</v>
       </c>
       <c r="B144" t="n">
-        <v>8.879269971645093e-05</v>
+        <v>8.897929006132467e-05</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>1.541092205888845e-05</v>
       </c>
       <c r="D144" t="n">
-        <v>1.589860467874555e-05</v>
+        <v>7.228882284295664e-06</v>
       </c>
       <c r="E144" t="n">
-        <v>0</v>
+        <v>2.649263371786433e-06</v>
       </c>
       <c r="F144" t="n">
-        <v>7.166699770338696e-06</v>
+        <v>5.011221236242582e-06</v>
+      </c>
+      <c r="G144" t="n">
+        <v>6.161058630372034e-06</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1.947904232632071</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0.7453402654059935</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.4869760581580176</v>
       </c>
     </row>
     <row r="145">
@@ -3258,19 +4994,31 @@
         <v>5.093719999999999</v>
       </c>
       <c r="B145" t="n">
-        <v>0.0003293260845873026</v>
+        <v>0.0003298038759508838</v>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>8.834747568973184e-05</v>
       </c>
       <c r="D145" t="n">
-        <v>8.650026491851863e-05</v>
+        <v>-1.343758670928482e-05</v>
       </c>
       <c r="E145" t="n">
-        <v>0</v>
+        <v>8.568798445504539e-06</v>
       </c>
       <c r="F145" t="n">
-        <v>-1.194045259091703e-05</v>
+        <v>1.579888180239498e-05</v>
+      </c>
+      <c r="G145" t="n">
+        <v>1.967191129330944e-05</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1.082456010385797</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0.8970456731431959</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.2706140025964494</v>
       </c>
     </row>
     <row r="146">
@@ -3278,19 +5026,31 @@
         <v>5.09676</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0006274129378046552</v>
+        <v>0.0006271199261914604</v>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>0.0001547971005733766</v>
       </c>
       <c r="D146" t="n">
-        <v>0.0001546948416462135</v>
+        <v>1.44716580742321e-05</v>
       </c>
       <c r="E146" t="n">
-        <v>0</v>
+        <v>1.446380574266978e-05</v>
       </c>
       <c r="F146" t="n">
-        <v>1.149214560405692e-05</v>
+        <v>2.662725161258797e-05</v>
+      </c>
+      <c r="G146" t="n">
+        <v>3.386667161451033e-05</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1.273718063761228</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0.8658186089079811</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.3184295159403069</v>
       </c>
     </row>
     <row r="147">
@@ -3298,19 +5058,31 @@
         <v>5.09889</v>
       </c>
       <c r="B147" t="n">
-        <v>0.0006984973322907529</v>
+        <v>0.0006980203364937239</v>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>0.0001713534847181857</v>
       </c>
       <c r="D147" t="n">
-        <v>0.0001714541218262373</v>
+        <v>1.749105157575833e-05</v>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>1.645316492267772e-05</v>
       </c>
       <c r="F147" t="n">
-        <v>1.537617001058064e-05</v>
+        <v>3.037459901560737e-05</v>
+      </c>
+      <c r="G147" t="n">
+        <v>3.835636956545622e-05</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0.6754004752924258</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0.9543275347053342</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.1688501188231064</v>
       </c>
     </row>
     <row r="148">
@@ -3318,19 +5090,31 @@
         <v>5.09999</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0007352375743384266</v>
+        <v>0.0007345759551344197</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>0.0001854421027130562</v>
       </c>
       <c r="D148" t="n">
-        <v>0.0001862374542795014</v>
+        <v>-3.537314744952611e-07</v>
       </c>
       <c r="E148" t="n">
-        <v>0</v>
+        <v>1.756596199636725e-05</v>
       </c>
       <c r="F148" t="n">
-        <v>-3.576505505281798e-06</v>
+        <v>3.222001814158153e-05</v>
+      </c>
+      <c r="G148" t="n">
+        <v>4.093181066579391e-05</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0.6848461202987219</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0.9531844710601469</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.1712115300746805</v>
       </c>
     </row>
     <row r="149">
@@ -3338,19 +5122,31 @@
         <v>5.10043</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0007204316279372303</v>
+        <v>0.0007195791469344412</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>0.0001753899941744545</v>
       </c>
       <c r="D149" t="n">
-        <v>0.0001759391646695198</v>
+        <v>-8.309548003278353e-07</v>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>1.721012307219632e-05</v>
       </c>
       <c r="F149" t="n">
-        <v>-4.518511044134991e-06</v>
+        <v>3.146431026830282e-05</v>
+      </c>
+      <c r="G149" t="n">
+        <v>3.99217120005706e-05</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1.102651332299297</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0.893851314722479</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.2756628330748243</v>
       </c>
     </row>
     <row r="150">
@@ -3358,19 +5154,31 @@
         <v>5.100709999999999</v>
       </c>
       <c r="B150" t="n">
-        <v>0.0007168377662702624</v>
+        <v>0.000716402181993021</v>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>0.0001675144857932709</v>
       </c>
       <c r="D150" t="n">
-        <v>0.000168818101801415</v>
+        <v>1.687622927835182e-07</v>
       </c>
       <c r="E150" t="n">
-        <v>0</v>
+        <v>1.711835928648471e-05</v>
       </c>
       <c r="F150" t="n">
-        <v>-3.317104859181647e-06</v>
+        <v>3.133578886378863e-05</v>
+      </c>
+      <c r="G150" t="n">
+        <v>3.973505264604398e-05</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0.8640809982651685</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0.929656468786753</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.2160202495662921</v>
       </c>
     </row>
     <row r="151">
@@ -3378,19 +5186,31 @@
         <v>5.10288</v>
       </c>
       <c r="B151" t="n">
-        <v>0.0008881372252283734</v>
+        <v>0.0008882907633721978</v>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>0.0002204448257918205</v>
       </c>
       <c r="D151" t="n">
-        <v>0.0002202058149426116</v>
+        <v>-8.545081199671329e-06</v>
       </c>
       <c r="E151" t="n">
-        <v>0</v>
+        <v>2.092596176220999e-05</v>
       </c>
       <c r="F151" t="n">
-        <v>-8.858677605420076e-06</v>
+        <v>3.845134943186366e-05</v>
+      </c>
+      <c r="G151" t="n">
+        <v>4.89392146055409e-05</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0.8656980487393792</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0.9294295785519281</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.2164245121848448</v>
       </c>
     </row>
     <row r="152">
@@ -3398,19 +5218,31 @@
         <v>5.10486</v>
       </c>
       <c r="B152" t="n">
-        <v>0.0009289622663922919</v>
+        <v>0.0009284477036711772</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>0.000219100806221985</v>
       </c>
       <c r="D152" t="n">
-        <v>0.0002196110800201867</v>
+        <v>-1.693022831797592e-05</v>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
+        <v>2.171264707920707e-05</v>
       </c>
       <c r="F152" t="n">
-        <v>-2.116194396487426e-05</v>
+        <v>3.95126771803724e-05</v>
+      </c>
+      <c r="G152" t="n">
+        <v>5.040185937910519e-05</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1.218341890515348</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0.8750696115580389</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.3045854726288369</v>
       </c>
     </row>
     <row r="153">
@@ -3418,19 +5250,31 @@
         <v>5.1069</v>
       </c>
       <c r="B153" t="n">
-        <v>0.0009264985896335037</v>
+        <v>0.0009263297901172772</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>0.0002015102370410126</v>
       </c>
       <c r="D153" t="n">
-        <v>0.000200635547437369</v>
+        <v>1.006217388841227e-05</v>
       </c>
       <c r="E153" t="n">
-        <v>0</v>
+        <v>2.175894032362487e-05</v>
       </c>
       <c r="F153" t="n">
-        <v>8.614492099024227e-06</v>
+        <v>4.016762066030401e-05</v>
+      </c>
+      <c r="G153" t="n">
+        <v>5.049708928258822e-05</v>
+      </c>
+      <c r="H153" t="n">
+        <v>1.32420705310053</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0.8572552686106156</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.3310517632751326</v>
       </c>
     </row>
     <row r="154">
@@ -3438,19 +5282,31 @@
         <v>5.10878</v>
       </c>
       <c r="B154" t="n">
-        <v>0.0009385396758766754</v>
+        <v>0.0009375876248748159</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>0.0002540560417141481</v>
       </c>
       <c r="D154" t="n">
-        <v>0.0002542589505219598</v>
+        <v>6.230862048847751e-06</v>
       </c>
       <c r="E154" t="n">
-        <v>0</v>
+        <v>2.178581879642473e-05</v>
       </c>
       <c r="F154" t="n">
-        <v>-1.507812774695116e-06</v>
+        <v>3.990452112539832e-05</v>
+      </c>
+      <c r="G154" t="n">
+        <v>5.124474756263655e-05</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1.805256187607834</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0.7715205615688512</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.4513140469019586</v>
       </c>
     </row>
     <row r="155">
@@ -3458,19 +5314,31 @@
         <v>5.110040000000001</v>
       </c>
       <c r="B155" t="n">
-        <v>0.0009460925911397544</v>
+        <v>0.0009465801919624906</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>0.000224512087853315</v>
       </c>
       <c r="D155" t="n">
-        <v>0.0002227078666439506</v>
+        <v>2.720026849144155e-05</v>
       </c>
       <c r="E155" t="n">
-        <v>0</v>
+        <v>2.215057284372313e-05</v>
       </c>
       <c r="F155" t="n">
-        <v>2.089079795560064e-05</v>
+        <v>4.11191414773226e-05</v>
+      </c>
+      <c r="G155" t="n">
+        <v>5.227227082099474e-05</v>
+      </c>
+      <c r="H155" t="n">
+        <v>3.266331797250269</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0.5142843210623639</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.8165829493125671</v>
       </c>
     </row>
     <row r="156">
@@ -3478,19 +5346,31 @@
         <v>5.11075</v>
       </c>
       <c r="B156" t="n">
-        <v>0.0009320207552190797</v>
+        <v>0.0009316903713776619</v>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>0.0002113328173757324</v>
       </c>
       <c r="D156" t="n">
-        <v>0.0002118342467462176</v>
+        <v>1.174309412290612e-05</v>
       </c>
       <c r="E156" t="n">
-        <v>0</v>
+        <v>2.183068048881394e-05</v>
       </c>
       <c r="F156" t="n">
-        <v>7.339649172659951e-06</v>
+        <v>4.012201575269054e-05</v>
+      </c>
+      <c r="G156" t="n">
+        <v>5.074417996954363e-05</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1.430722092991517</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0.83883817856377</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.3576805232478794</v>
       </c>
     </row>
     <row r="157">
@@ -3498,19 +5378,31 @@
         <v>5.11384</v>
       </c>
       <c r="B157" t="n">
-        <v>0.0009169670329805345</v>
+        <v>0.0009164323993129383</v>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>0.0002036075917932093</v>
       </c>
       <c r="D157" t="n">
-        <v>0.0002039072723243473</v>
+        <v>3.893590393165168e-06</v>
       </c>
       <c r="E157" t="n">
-        <v>0</v>
+        <v>2.125779387854971e-05</v>
       </c>
       <c r="F157" t="n">
-        <v>1.345801530847284e-07</v>
+        <v>3.897043796554862e-05</v>
+      </c>
+      <c r="G157" t="n">
+        <v>4.946559867261511e-05</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0.9828927197327038</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0.9123788226635491</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.2457231799331759</v>
       </c>
     </row>
     <row r="158">
@@ -3518,19 +5410,31 @@
         <v>5.1188</v>
       </c>
       <c r="B158" t="n">
-        <v>0.0007680249172174119</v>
+        <v>0.0007674974952102795</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>0.0001765203476194786</v>
       </c>
       <c r="D158" t="n">
-        <v>0.0001767474450879029</v>
+        <v>7.644106162098545e-06</v>
       </c>
       <c r="E158" t="n">
-        <v>0</v>
+        <v>1.762449160365651e-05</v>
       </c>
       <c r="F158" t="n">
-        <v>4.474270640390862e-06</v>
+        <v>3.23611326881084e-05</v>
+      </c>
+      <c r="G158" t="n">
+        <v>4.102936361946318e-05</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0.7977976177320605</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0.9387430805543091</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.1994494044330151</v>
       </c>
     </row>
     <row r="159">
@@ -3538,19 +5442,31 @@
         <v>5.123769999999999</v>
       </c>
       <c r="B159" t="n">
-        <v>0.0005629131303903205</v>
+        <v>0.0005628905562394166</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>0.0001348861580683509</v>
       </c>
       <c r="D159" t="n">
-        <v>0.0001351139566760753</v>
+        <v>-8.795843981954554e-06</v>
       </c>
       <c r="E159" t="n">
-        <v>0</v>
+        <v>1.357184265200273e-05</v>
       </c>
       <c r="F159" t="n">
-        <v>-1.033228231758073e-05</v>
+        <v>2.49799965873546e-05</v>
+      </c>
+      <c r="G159" t="n">
+        <v>3.153604749986075e-05</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1.273553316963797</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0.865846357166614</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.3183883292409493</v>
       </c>
     </row>
     <row r="160">
@@ -3558,19 +5474,31 @@
         <v>5.12852</v>
       </c>
       <c r="B160" t="n">
-        <v>0.0004107580228342945</v>
+        <v>0.0004105222689802775</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>8.762090049488838e-05</v>
       </c>
       <c r="D160" t="n">
-        <v>8.750933579760506e-05</v>
+        <v>3.118421467445233e-06</v>
       </c>
       <c r="E160" t="n">
-        <v>0</v>
+        <v>9.72957513041909e-06</v>
       </c>
       <c r="F160" t="n">
-        <v>2.427326494640356e-06</v>
+        <v>1.79731572437615e-05</v>
+      </c>
+      <c r="G160" t="n">
+        <v>2.242535097992455e-05</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1.193063958123016</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0.8792392664182899</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.2982659895307541</v>
       </c>
     </row>
     <row r="161">
@@ -3578,19 +5506,31 @@
         <v>5.12994</v>
       </c>
       <c r="B161" t="n">
-        <v>0.0004303173451717873</v>
+        <v>0.0004300600397076108</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>0.0001078656524289561</v>
       </c>
       <c r="D161" t="n">
-        <v>0.0001065499415785689</v>
+        <v>1.234196443168005e-05</v>
       </c>
       <c r="E161" t="n">
-        <v>0</v>
+        <v>1.052953056634355e-05</v>
       </c>
       <c r="F161" t="n">
-        <v>8.129421299013026e-06</v>
+        <v>1.960064171008045e-05</v>
+      </c>
+      <c r="G161" t="n">
+        <v>2.48070228757222e-05</v>
+      </c>
+      <c r="H161" t="n">
+        <v>4.362443558232449</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0.3591710833048125</v>
+      </c>
+      <c r="J161" t="n">
+        <v>1.090610889558112</v>
       </c>
     </row>
     <row r="162">
@@ -3598,19 +5538,31 @@
         <v>5.13381</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0003311331470249582</v>
+        <v>0.0003310938095944667</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>8.094495035915891e-05</v>
       </c>
       <c r="D162" t="n">
-        <v>8.073977516782003e-05</v>
+        <v>1.63543018763052e-06</v>
       </c>
       <c r="E162" t="n">
-        <v>0</v>
+        <v>7.929102554971009e-06</v>
       </c>
       <c r="F162" t="n">
-        <v>1.733269783866387e-06</v>
+        <v>1.4749831186223e-05</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1.845820799446604e-05</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0.5358218341103564</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0.969921325800299</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.1339554585275891</v>
       </c>
     </row>
     <row r="163">
@@ -3618,19 +5570,31 @@
         <v>5.13888</v>
       </c>
       <c r="B163" t="n">
-        <v>0.0003310166193261172</v>
+        <v>0.0003307711788558928</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>7.18430348373155e-05</v>
       </c>
       <c r="D163" t="n">
-        <v>7.184190698285265e-05</v>
+        <v>7.716623707498739e-06</v>
       </c>
       <c r="E163" t="n">
-        <v>0</v>
+        <v>8.018233277133802e-06</v>
       </c>
       <c r="F163" t="n">
-        <v>7.099740762049726e-06</v>
+        <v>1.493699782214118e-05</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1.858342786152418e-05</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0.5013508167648856</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0.973369343538463</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.1253377041912214</v>
       </c>
     </row>
     <row r="164">
@@ -3638,19 +5602,31 @@
         <v>5.14165</v>
       </c>
       <c r="B164" t="n">
-        <v>0.0003182729442303068</v>
+        <v>0.0003179637302630673</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>7.86992288265923e-05</v>
       </c>
       <c r="D164" t="n">
-        <v>7.885190376734371e-05</v>
+        <v>-6.907204145170718e-07</v>
       </c>
       <c r="E164" t="n">
-        <v>0</v>
+        <v>7.639906300358804e-06</v>
       </c>
       <c r="F164" t="n">
-        <v>-1.725361212702921e-06</v>
+        <v>1.406705783221561e-05</v>
+      </c>
+      <c r="G164" t="n">
+        <v>1.773197806892069e-05</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0.5878004824778905</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0.9644096355799292</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.1469501206194726</v>
       </c>
     </row>
     <row r="165">
@@ -3658,19 +5634,31 @@
         <v>5.144740000000001</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0002929400519244485</v>
+        <v>0.0002928390520948999</v>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>6.317280847873899e-05</v>
       </c>
       <c r="D165" t="n">
-        <v>6.301657955251813e-05</v>
+        <v>7.491249331805839e-07</v>
       </c>
       <c r="E165" t="n">
-        <v>0</v>
+        <v>7.104534065362798e-06</v>
       </c>
       <c r="F165" t="n">
-        <v>8.378859503636059e-07</v>
+        <v>1.317983515068011e-05</v>
+      </c>
+      <c r="G165" t="n">
+        <v>1.639906923252282e-05</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0.09149493531345487</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0.9989849576278507</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.02287373382836372</v>
       </c>
     </row>
     <row r="166">
@@ -3678,19 +5666,31 @@
         <v>5.14799</v>
       </c>
       <c r="B166" t="n">
-        <v>0.0002723109366877399</v>
+        <v>0.0002720545120223551</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>6.299800714813637e-05</v>
       </c>
       <c r="D166" t="n">
-        <v>6.318755264315908e-05</v>
+        <v>-1.16772006232754e-05</v>
       </c>
       <c r="E166" t="n">
-        <v>0</v>
+        <v>6.784853772499107e-06</v>
       </c>
       <c r="F166" t="n">
-        <v>-1.226224373343516e-05</v>
+        <v>1.243752078799642e-05</v>
+      </c>
+      <c r="G166" t="n">
+        <v>1.56054864758233e-05</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0.4516147872824592</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0.9780371050887241</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.1129036968206148</v>
       </c>
     </row>
     <row r="167">
@@ -3698,19 +5698,31 @@
         <v>5.15001</v>
       </c>
       <c r="B167" t="n">
-        <v>0.0002617157368160014</v>
+        <v>0.0002615842720573016</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>6.707029888776859e-05</v>
       </c>
       <c r="D167" t="n">
-        <v>6.774813916727199e-05</v>
+        <v>-9.87381128916766e-07</v>
       </c>
       <c r="E167" t="n">
-        <v>0</v>
+        <v>6.790265714936231e-06</v>
       </c>
       <c r="F167" t="n">
-        <v>-3.233453750351834e-06</v>
+        <v>1.261186580542002e-05</v>
+      </c>
+      <c r="G167" t="n">
+        <v>1.591301952196487e-05</v>
+      </c>
+      <c r="H167" t="n">
+        <v>2.58324172496029</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0.6297946311280623</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.6458104312400725</v>
       </c>
     </row>
     <row r="168">
@@ -3718,19 +5730,31 @@
         <v>5.150980000000001</v>
       </c>
       <c r="B168" t="n">
-        <v>0.0002493272019499312</v>
+        <v>0.0002495700455870365</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>5.738897145375281e-05</v>
       </c>
       <c r="D168" t="n">
-        <v>5.772271841677461e-05</v>
+        <v>1.768272651090155e-06</v>
       </c>
       <c r="E168" t="n">
-        <v>0</v>
+        <v>6.08351866181693e-06</v>
       </c>
       <c r="F168" t="n">
-        <v>1.102054917969166e-06</v>
+        <v>1.127666784916991e-05</v>
+      </c>
+      <c r="G168" t="n">
+        <v>1.420307459474042e-05</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1.60386483824759</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0.8080973347620154</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.4009662095618975</v>
       </c>
     </row>
     <row r="169">
@@ -3738,19 +5762,31 @@
         <v>5.15704</v>
       </c>
       <c r="B169" t="n">
-        <v>0.0002107947198483006</v>
+        <v>0.0002105544826169374</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>4.369944690270668e-05</v>
       </c>
       <c r="D169" t="n">
-        <v>4.3926842431363e-05</v>
+        <v>-3.215229724463399e-06</v>
       </c>
       <c r="E169" t="n">
-        <v>0</v>
+        <v>5.213508421969516e-06</v>
       </c>
       <c r="F169" t="n">
-        <v>-3.987241105376607e-06</v>
+        <v>9.564886189351397e-06</v>
+      </c>
+      <c r="G169" t="n">
+        <v>1.199288596199872e-05</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0.8086676081571668</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0.9372822877176473</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.2021669020392917</v>
       </c>
     </row>
     <row r="170">
@@ -3758,19 +5794,31 @@
         <v>5.15937</v>
       </c>
       <c r="B170" t="n">
-        <v>0.0001886547860933451</v>
+        <v>0.000188512867608902</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>3.920171555064428e-05</v>
       </c>
       <c r="D170" t="n">
-        <v>3.933504503146113e-05</v>
+        <v>8.079788038020772e-06</v>
       </c>
       <c r="E170" t="n">
-        <v>0</v>
+        <v>4.595286856602219e-06</v>
       </c>
       <c r="F170" t="n">
-        <v>7.251278680724332e-06</v>
+        <v>8.556983696019094e-06</v>
+      </c>
+      <c r="G170" t="n">
+        <v>1.068770964298617e-05</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0.9820820573005176</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0.9125006550091335</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.2455205143251294</v>
       </c>
     </row>
     <row r="171">
@@ -3778,19 +5826,31 @@
         <v>5.17005</v>
       </c>
       <c r="B171" t="n">
-        <v>0.0001198497948971438</v>
+        <v>0.0001196720982721602</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>2.75208923878545e-05</v>
       </c>
       <c r="D171" t="n">
-        <v>2.792933215048113e-05</v>
+        <v>1.817407701062512e-06</v>
       </c>
       <c r="E171" t="n">
-        <v>0</v>
+        <v>3.39646236395537e-06</v>
       </c>
       <c r="F171" t="n">
-        <v>1.168536829299468e-06</v>
+        <v>6.333212379559773e-06</v>
+      </c>
+      <c r="G171" t="n">
+        <v>7.875489476371635e-06</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1.147422430029137</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0.8866769626870143</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.2868556075072843</v>
       </c>
     </row>
     <row r="172">
@@ -3798,19 +5858,31 @@
         <v>5.18984</v>
       </c>
       <c r="B172" t="n">
-        <v>8.889934980119232e-05</v>
+        <v>8.900072444276621e-05</v>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>1.735811215505785e-05</v>
       </c>
       <c r="D172" t="n">
-        <v>1.73684406932414e-05</v>
+        <v>5.746086504195431e-06</v>
       </c>
       <c r="E172" t="n">
-        <v>0</v>
+        <v>2.394892047960206e-06</v>
       </c>
       <c r="F172" t="n">
-        <v>5.542811101512008e-06</v>
+        <v>4.495021645499885e-06</v>
+      </c>
+      <c r="G172" t="n">
+        <v>5.592657896961127e-06</v>
+      </c>
+      <c r="H172" t="n">
+        <v>3.135640056265161</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0.535388446531158</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.7839100140662904</v>
       </c>
     </row>
     <row r="173">
@@ -3818,19 +5890,31 @@
         <v>5.210030000000001</v>
       </c>
       <c r="B173" t="n">
-        <v>9.669099162737189e-05</v>
+        <v>9.699483358487033e-05</v>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>2.112586089213136e-05</v>
       </c>
       <c r="D173" t="n">
-        <v>2.124588658979048e-05</v>
+        <v>6.237652465793716e-06</v>
       </c>
       <c r="E173" t="n">
-        <v>0</v>
+        <v>2.701470612925384e-06</v>
       </c>
       <c r="F173" t="n">
-        <v>6.480407367016997e-06</v>
+        <v>5.121380639248491e-06</v>
+      </c>
+      <c r="G173" t="n">
+        <v>6.338962886218355e-06</v>
+      </c>
+      <c r="H173" t="n">
+        <v>2.752630348529581</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0.6000368959178741</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.6881575871323952</v>
       </c>
     </row>
     <row r="174">
@@ -3838,19 +5922,31 @@
         <v>5.23003</v>
       </c>
       <c r="B174" t="n">
-        <v>0.0001308529786929924</v>
+        <v>0.0001311237254819139</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>2.225279761999145e-05</v>
       </c>
       <c r="D174" t="n">
-        <v>2.298229450654442e-05</v>
+        <v>5.619586325869151e-06</v>
       </c>
       <c r="E174" t="n">
-        <v>0</v>
+        <v>3.995919604930465e-06</v>
       </c>
       <c r="F174" t="n">
-        <v>5.35032577862588e-06</v>
+        <v>7.404682467209515e-06</v>
+      </c>
+      <c r="G174" t="n">
+        <v>9.244664719997556e-06</v>
+      </c>
+      <c r="H174" t="n">
+        <v>2.212886882359421</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0.6966706613109306</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.5532217205898553</v>
       </c>
     </row>
     <row r="175">
@@ -3858,19 +5954,31 @@
         <v>5.2395</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0001698286141133588</v>
+        <v>0.0001696339495176041</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>3.884986862590221e-05</v>
       </c>
       <c r="D175" t="n">
-        <v>3.878136785973486e-05</v>
+        <v>1.144993698654301e-06</v>
       </c>
       <c r="E175" t="n">
-        <v>0</v>
+        <v>4.507151281720312e-06</v>
       </c>
       <c r="F175" t="n">
-        <v>7.712730358316712e-07</v>
+        <v>8.189040812037004e-06</v>
+      </c>
+      <c r="G175" t="n">
+        <v>1.033238988745252e-05</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1.940001981777863</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0.7467932207033791</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.4850004954444658</v>
       </c>
     </row>
     <row r="176">
@@ -3878,19 +5986,31 @@
         <v>5.24306</v>
       </c>
       <c r="B176" t="n">
-        <v>0.0001855626097901895</v>
+        <v>0.0001860467846057586</v>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>3.677021185213581e-05</v>
       </c>
       <c r="D176" t="n">
-        <v>3.585133532812916e-05</v>
+        <v>5.245156571513426e-06</v>
       </c>
       <c r="E176" t="n">
-        <v>0</v>
+        <v>5.631165778379605e-06</v>
       </c>
       <c r="F176" t="n">
-        <v>6.821254740295646e-06</v>
+        <v>1.027851185156862e-05</v>
+      </c>
+      <c r="G176" t="n">
+        <v>1.295399689177682e-05</v>
+      </c>
+      <c r="H176" t="n">
+        <v>4.43126631695543</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0.3507754929786011</v>
+      </c>
+      <c r="J176" t="n">
+        <v>1.107816579238857</v>
       </c>
     </row>
     <row r="177">
@@ -3898,19 +6018,31 @@
         <v>5.25013</v>
       </c>
       <c r="B177" t="n">
-        <v>0.0002559286156833421</v>
+        <v>0.0002563850551192797</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>4.432555205619392e-05</v>
       </c>
       <c r="D177" t="n">
-        <v>4.464778614030352e-05</v>
+        <v>1.633798259797635e-05</v>
       </c>
       <c r="E177" t="n">
-        <v>0</v>
+        <v>8.112533250427723e-06</v>
       </c>
       <c r="F177" t="n">
-        <v>1.733951346458993e-05</v>
+        <v>1.48813035323527e-05</v>
+      </c>
+      <c r="G177" t="n">
+        <v>1.862263690381999e-05</v>
+      </c>
+      <c r="H177" t="n">
+        <v>2.088572723148141</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0.7194720495699902</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.5221431807870354</v>
       </c>
     </row>
     <row r="178">
@@ -3918,19 +6050,31 @@
         <v>5.25994</v>
       </c>
       <c r="B178" t="n">
-        <v>0.00038567151307328</v>
+        <v>0.0003858573052245202</v>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>7.633980858776993e-05</v>
       </c>
       <c r="D178" t="n">
-        <v>7.527498458607928e-05</v>
+        <v>1.454153318897254e-05</v>
       </c>
       <c r="E178" t="n">
-        <v>0</v>
+        <v>1.101371155079649e-05</v>
       </c>
       <c r="F178" t="n">
-        <v>1.598955522143902e-05</v>
+        <v>2.021438226087301e-05</v>
+      </c>
+      <c r="G178" t="n">
+        <v>2.53768778678109e-05</v>
+      </c>
+      <c r="H178" t="n">
+        <v>2.844689343342335</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0.5841434294322888</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.7111723358355837</v>
       </c>
     </row>
     <row r="179">
@@ -3938,19 +6082,31 @@
         <v>5.26504</v>
       </c>
       <c r="B179" t="n">
-        <v>0.000455984634227624</v>
+        <v>0.0004564818027848426</v>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>8.923519341973185e-05</v>
       </c>
       <c r="D179" t="n">
-        <v>8.854937381100043e-05</v>
+        <v>-3.966569677672001e-06</v>
       </c>
       <c r="E179" t="n">
-        <v>0</v>
+        <v>1.351906193911221e-05</v>
       </c>
       <c r="F179" t="n">
-        <v>-1.418020763348573e-06</v>
+        <v>2.465913695686303e-05</v>
+      </c>
+      <c r="G179" t="n">
+        <v>3.101435341581122e-05</v>
+      </c>
+      <c r="H179" t="n">
+        <v>2.04679326898909</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0.7271525176593844</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.5116983172472725</v>
       </c>
     </row>
     <row r="180">
@@ -3958,19 +6114,31 @@
         <v>5.26998</v>
       </c>
       <c r="B180" t="n">
-        <v>0.0005551077469547375</v>
+        <v>0.0005552847636279159</v>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>0.0001255088443611925</v>
       </c>
       <c r="D180" t="n">
-        <v>0.0001268173235224053</v>
+        <v>1.152301057283009e-05</v>
       </c>
       <c r="E180" t="n">
-        <v>0</v>
+        <v>1.55792074841962e-05</v>
       </c>
       <c r="F180" t="n">
-        <v>1.049632591719262e-05</v>
+        <v>2.862955735016478e-05</v>
+      </c>
+      <c r="G180" t="n">
+        <v>3.604876933270567e-05</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1.415160659775916</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0.8415557866865033</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.3537901649439791</v>
       </c>
     </row>
     <row r="181">
@@ -3978,19 +6146,31 @@
         <v>5.27496</v>
       </c>
       <c r="B181" t="n">
-        <v>0.0007498996780802837</v>
+        <v>0.0007479745278013882</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>0.0002140251636149153</v>
       </c>
       <c r="D181" t="n">
-        <v>0.0002149628477513626</v>
+        <v>4.149340072912228e-05</v>
       </c>
       <c r="E181" t="n">
-        <v>0</v>
+        <v>1.974372981302225e-05</v>
       </c>
       <c r="F181" t="n">
-        <v>3.363231852993233e-05</v>
+        <v>3.643149349518832e-05</v>
+      </c>
+      <c r="G181" t="n">
+        <v>4.649951029375976e-05</v>
+      </c>
+      <c r="H181" t="n">
+        <v>2.381075725896143</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0.6660498577517471</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.5952689314740358</v>
       </c>
     </row>
     <row r="182">
@@ -3998,19 +6178,31 @@
         <v>5.27502</v>
       </c>
       <c r="B182" t="n">
-        <v>0.0007421393939302571</v>
+        <v>0.0007431172451756565</v>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>0.000205224579134054</v>
       </c>
       <c r="D182" t="n">
-        <v>0.0002052144040696686</v>
+        <v>5.980149665742087e-06</v>
       </c>
       <c r="E182" t="n">
-        <v>0</v>
+        <v>1.793937324190968e-05</v>
       </c>
       <c r="F182" t="n">
-        <v>8.164403394931125e-06</v>
+        <v>3.302443224809823e-05</v>
+      </c>
+      <c r="G182" t="n">
+        <v>4.219251814192165e-05</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0.5581584573959909</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0.9675978113318077</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.1395396143489977</v>
       </c>
     </row>
     <row r="183">
@@ -4018,19 +6210,31 @@
         <v>5.279809999999999</v>
       </c>
       <c r="B183" t="n">
-        <v>0.001123172321667324</v>
+        <v>0.001122361111792372</v>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>0.0002603795899218197</v>
       </c>
       <c r="D183" t="n">
-        <v>0.000260849160595102</v>
+        <v>2.348215794709314e-05</v>
       </c>
       <c r="E183" t="n">
-        <v>0</v>
+        <v>2.882158987588294e-05</v>
       </c>
       <c r="F183" t="n">
-        <v>2.165704044099091e-05</v>
+        <v>5.336198548586542e-05</v>
+      </c>
+      <c r="G183" t="n">
+        <v>6.706973294928065e-05</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0.801901775025305</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0.9381929231906069</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.2004754437563263</v>
       </c>
     </row>
     <row r="184">
@@ -4038,19 +6242,31 @@
         <v>5.28495</v>
       </c>
       <c r="B184" t="n">
-        <v>0.00143933649318953</v>
+        <v>0.001437258390606288</v>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>0.0003269110362366139</v>
       </c>
       <c r="D184" t="n">
-        <v>0.0003248044732896631</v>
+        <v>2.214153820380817e-05</v>
       </c>
       <c r="E184" t="n">
-        <v>0</v>
+        <v>3.662760079851154e-05</v>
       </c>
       <c r="F184" t="n">
-        <v>3.569338047237533e-06</v>
+        <v>6.69124627745089e-05</v>
+      </c>
+      <c r="G184" t="n">
+        <v>8.542029778823224e-05</v>
+      </c>
+      <c r="H184" t="n">
+        <v>5.132492359344898</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0.2739711069142013</v>
+      </c>
+      <c r="J184" t="n">
+        <v>1.283123089836224</v>
       </c>
     </row>
     <row r="185">
@@ -4058,19 +6274,31 @@
         <v>5.29016</v>
       </c>
       <c r="B185" t="n">
-        <v>0.001871354278269451</v>
+        <v>0.001871598152509836</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>0.000387138820584143</v>
       </c>
       <c r="D185" t="n">
-        <v>0.0003852629451515217</v>
+        <v>0.0001199267933499584</v>
       </c>
       <c r="E185" t="n">
-        <v>0</v>
+        <v>4.355072338642579e-05</v>
       </c>
       <c r="F185" t="n">
-        <v>9.236916885932158e-05</v>
+        <v>8.054914643065668e-05</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.0001026861624797298</v>
+      </c>
+      <c r="H185" t="n">
+        <v>4.737403307171899</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0.3153178032793184</v>
+      </c>
+      <c r="J185" t="n">
+        <v>1.184350826792975</v>
       </c>
     </row>
     <row r="186">
@@ -4078,19 +6306,31 @@
         <v>5.29294</v>
       </c>
       <c r="B186" t="n">
-        <v>0.002201980258600359</v>
+        <v>0.002202842887813152</v>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>0.0006159578361863547</v>
       </c>
       <c r="D186" t="n">
-        <v>0.000617117314409957</v>
+        <v>5.841110877349886e-05</v>
       </c>
       <c r="E186" t="n">
-        <v>0</v>
+        <v>5.059529397805028e-05</v>
       </c>
       <c r="F186" t="n">
-        <v>5.623156682945467e-05</v>
+        <v>9.363046272882865e-05</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.0001200317121157995</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0.6001794070645292</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0.9630437485966306</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.1500448517661323</v>
       </c>
     </row>
     <row r="187">
@@ -4098,19 +6338,31 @@
         <v>5.29767</v>
       </c>
       <c r="B187" t="n">
-        <v>0.002144905471312783</v>
+        <v>0.002144492079608343</v>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>0.0005070837071217083</v>
       </c>
       <c r="D187" t="n">
-        <v>0.0004987951231202109</v>
+        <v>6.09104859526032e-05</v>
       </c>
       <c r="E187" t="n">
-        <v>0</v>
+        <v>4.785722845454375e-05</v>
       </c>
       <c r="F187" t="n">
-        <v>2.758703284644474e-05</v>
+        <v>8.737465416780232e-05</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.0001127528483069892</v>
+      </c>
+      <c r="H187" t="n">
+        <v>5.283165826829437</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0.2594569567775102</v>
+      </c>
+      <c r="J187" t="n">
+        <v>1.320791456707359</v>
       </c>
     </row>
     <row r="188">
@@ -4118,19 +6370,31 @@
         <v>5.29972</v>
       </c>
       <c r="B188" t="n">
-        <v>0.002112937407379047</v>
+        <v>0.002112264524840914</v>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
+        <v>0.0005558283843482705</v>
       </c>
       <c r="D188" t="n">
-        <v>0.0005566926347355342</v>
+        <v>-8.734049778526612e-07</v>
       </c>
       <c r="E188" t="n">
-        <v>0</v>
+        <v>4.776414203332619e-05</v>
       </c>
       <c r="F188" t="n">
-        <v>-6.106242373602888e-06</v>
+        <v>8.718384557268589e-05</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.0001120173020307812</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0.4380759807693707</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0.9792424904247937</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.1095189951923427</v>
       </c>
     </row>
     <row r="189">
@@ -4138,19 +6402,31 @@
         <v>5.30238</v>
       </c>
       <c r="B189" t="n">
-        <v>0.001987137410313606</v>
+        <v>0.001986441483292726</v>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>0.0004751540659929419</v>
       </c>
       <c r="D189" t="n">
-        <v>0.0004681514898122839</v>
+        <v>3.821867695074027e-05</v>
       </c>
       <c r="E189" t="n">
-        <v>0</v>
+        <v>4.53644875685701e-05</v>
       </c>
       <c r="F189" t="n">
-        <v>9.776144028755311e-06</v>
+        <v>8.284527246495462e-05</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.000106700892693089</v>
+      </c>
+      <c r="H189" t="n">
+        <v>5.134949163744374</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0.273729020989767</v>
+      </c>
+      <c r="J189" t="n">
+        <v>1.283737290936094</v>
       </c>
     </row>
     <row r="190">
@@ -4158,19 +6434,31 @@
         <v>5.30823</v>
       </c>
       <c r="B190" t="n">
-        <v>0.001723551896515138</v>
+        <v>0.001722777765893926</v>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>0.0004214986472646608</v>
       </c>
       <c r="D190" t="n">
-        <v>0.000417812117747501</v>
+        <v>6.354165221186684e-05</v>
       </c>
       <c r="E190" t="n">
-        <v>0</v>
+        <v>3.805582651451633e-05</v>
       </c>
       <c r="F190" t="n">
-        <v>4.308208635926714e-05</v>
+        <v>6.975257648636049e-05</v>
+      </c>
+      <c r="G190" t="n">
+        <v>8.980949357504339e-05</v>
+      </c>
+      <c r="H190" t="n">
+        <v>3.314048355492693</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0.5067095033141374</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.8285120888731733</v>
       </c>
     </row>
     <row r="191">
@@ -4178,19 +6466,31 @@
         <v>5.312880000000001</v>
       </c>
       <c r="B191" t="n">
-        <v>0.001637657258158554</v>
+        <v>0.00163725223912585</v>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>0.000405704817673358</v>
       </c>
       <c r="D191" t="n">
-        <v>0.0003988051883257863</v>
+        <v>6.860283156293967e-05</v>
       </c>
       <c r="E191" t="n">
-        <v>0</v>
+        <v>3.645850847835963e-05</v>
       </c>
       <c r="F191" t="n">
-        <v>4.257604443430796e-05</v>
+        <v>6.701283658265198e-05</v>
+      </c>
+      <c r="G191" t="n">
+        <v>8.627637770303088e-05</v>
+      </c>
+      <c r="H191" t="n">
+        <v>5.245346783302028</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0.2630368526717288</v>
+      </c>
+      <c r="J191" t="n">
+        <v>1.311336695825507</v>
       </c>
     </row>
     <row r="192">
@@ -4198,19 +6498,31 @@
         <v>5.31752</v>
       </c>
       <c r="B192" t="n">
-        <v>0.001405260052692656</v>
+        <v>0.001404692900865775</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>0.0003730842443111278</v>
       </c>
       <c r="D192" t="n">
-        <v>0.000367219574221899</v>
+        <v>4.254490957433495e-05</v>
       </c>
       <c r="E192" t="n">
-        <v>0</v>
+        <v>3.139235144415712e-05</v>
       </c>
       <c r="F192" t="n">
-        <v>1.783411642374489e-05</v>
+        <v>5.749111446501164e-05</v>
+      </c>
+      <c r="G192" t="n">
+        <v>7.455630659526088e-05</v>
+      </c>
+      <c r="H192" t="n">
+        <v>5.523990193430615</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0.237628756634867</v>
+      </c>
+      <c r="J192" t="n">
+        <v>1.380997548357654</v>
       </c>
     </row>
     <row r="193">
@@ -4218,19 +6530,31 @@
         <v>5.32281</v>
       </c>
       <c r="B193" t="n">
-        <v>0.001116911626743041</v>
+        <v>0.001117094360278281</v>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>0.000303673986505172</v>
       </c>
       <c r="D193" t="n">
-        <v>0.0003005481122658742</v>
+        <v>3.356656332181873e-05</v>
       </c>
       <c r="E193" t="n">
-        <v>0</v>
+        <v>2.507553816448124e-05</v>
       </c>
       <c r="F193" t="n">
-        <v>1.821561060569199e-05</v>
+        <v>4.61615567650783e-05</v>
+      </c>
+      <c r="G193" t="n">
+        <v>5.98173700714799e-05</v>
+      </c>
+      <c r="H193" t="n">
+        <v>4.578268267848528</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0.3333675029861771</v>
+      </c>
+      <c r="J193" t="n">
+        <v>1.144567066962132</v>
       </c>
     </row>
     <row r="194">
@@ -4238,19 +6562,31 @@
         <v>5.32768</v>
       </c>
       <c r="B194" t="n">
-        <v>0.0009393015894190314</v>
+        <v>0.0009392194628076357</v>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>0.0002278282268569146</v>
       </c>
       <c r="D194" t="n">
-        <v>0.0002248289271033988</v>
+        <v>4.717746831354791e-05</v>
       </c>
       <c r="E194" t="n">
-        <v>0</v>
+        <v>2.13530328955151e-05</v>
       </c>
       <c r="F194" t="n">
-        <v>3.516089981968231e-05</v>
+        <v>3.962180939198525e-05</v>
+      </c>
+      <c r="G194" t="n">
+        <v>5.073547241592788e-05</v>
+      </c>
+      <c r="H194" t="n">
+        <v>4.352060395315688</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0.3604513992307086</v>
+      </c>
+      <c r="J194" t="n">
+        <v>1.088015098828922</v>
       </c>
     </row>
     <row r="195">
@@ -4258,19 +6594,31 @@
         <v>5.33288</v>
       </c>
       <c r="B195" t="n">
-        <v>0.0006904472105173385</v>
+        <v>0.0006918384340254626</v>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>0.0002025913759280004</v>
       </c>
       <c r="D195" t="n">
-        <v>0.0002028001410614523</v>
+        <v>-2.552339821596276e-06</v>
       </c>
       <c r="E195" t="n">
-        <v>0</v>
+        <v>1.630511996103328e-05</v>
       </c>
       <c r="F195" t="n">
-        <v>3.647819569036101e-07</v>
+        <v>3.041489828494556e-05</v>
+      </c>
+      <c r="G195" t="n">
+        <v>3.859457967268026e-05</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0.6939771705767175</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0.9520695767218357</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.1734942926441794</v>
       </c>
     </row>
     <row r="196">
@@ -4278,19 +6626,31 @@
         <v>5.33291</v>
       </c>
       <c r="B196" t="n">
-        <v>0.0007163056137630521</v>
+        <v>0.0007158487999503061</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>0.0001862669808150294</v>
       </c>
       <c r="D196" t="n">
-        <v>0.0001847907855094413</v>
+        <v>2.229123929732677e-05</v>
       </c>
       <c r="E196" t="n">
-        <v>0</v>
+        <v>1.638266824028309e-05</v>
       </c>
       <c r="F196" t="n">
-        <v>1.390299401405692e-05</v>
+        <v>3.025831598427558e-05</v>
+      </c>
+      <c r="G196" t="n">
+        <v>3.867686055841292e-05</v>
+      </c>
+      <c r="H196" t="n">
+        <v>3.491414102596397</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0.4791850494630705</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.8728535256490992</v>
       </c>
     </row>
     <row r="197">
@@ -4298,19 +6658,31 @@
         <v>5.33747</v>
       </c>
       <c r="B197" t="n">
-        <v>0.0004804442080658567</v>
+        <v>0.0004803466343701605</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>0.0001100782888972798</v>
       </c>
       <c r="D197" t="n">
-        <v>0.0001094581967083646</v>
+        <v>2.388803574205766e-05</v>
       </c>
       <c r="E197" t="n">
-        <v>0</v>
+        <v>1.122256961688968e-05</v>
       </c>
       <c r="F197" t="n">
-        <v>1.729128634231027e-05</v>
+        <v>2.090065242633458e-05</v>
+      </c>
+      <c r="G197" t="n">
+        <v>2.658697143383777e-05</v>
+      </c>
+      <c r="H197" t="n">
+        <v>4.187784717638285</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0.3811880722979486</v>
+      </c>
+      <c r="J197" t="n">
+        <v>1.046946179409571</v>
       </c>
     </row>
     <row r="198">
@@ -4318,19 +6690,31 @@
         <v>5.34274</v>
       </c>
       <c r="B198" t="n">
-        <v>0.000297083562196953</v>
+        <v>0.0002975524762834176</v>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>7.356573408817701e-05</v>
       </c>
       <c r="D198" t="n">
-        <v>7.4057709807352e-05</v>
+        <v>-1.435545843068607e-05</v>
       </c>
       <c r="E198" t="n">
-        <v>0</v>
+        <v>7.4483312617081e-06</v>
       </c>
       <c r="F198" t="n">
-        <v>-1.447170894772851e-05</v>
+        <v>1.384292809454708e-05</v>
+      </c>
+      <c r="G198" t="n">
+        <v>1.725264196959736e-05</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.3280418958634348</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0.9879327974929356</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.0820104739658587</v>
       </c>
     </row>
     <row r="199">
@@ -4338,19 +6722,31 @@
         <v>5.34293</v>
       </c>
       <c r="B199" t="n">
-        <v>0.0002974900916691384</v>
+        <v>0.0002975753373956735</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>6.326094585143243e-05</v>
       </c>
       <c r="D199" t="n">
-        <v>6.371074033422943e-05</v>
+        <v>1.028747117930292e-05</v>
       </c>
       <c r="E199" t="n">
-        <v>0</v>
+        <v>7.223690591527901e-06</v>
       </c>
       <c r="F199" t="n">
-        <v>9.142908326382241e-06</v>
+        <v>1.358795871414067e-05</v>
+      </c>
+      <c r="G199" t="n">
+        <v>1.692853091545547e-05</v>
+      </c>
+      <c r="H199" t="n">
+        <v>1.342330059249058</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0.8541537861968582</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.3355825148122644</v>
       </c>
     </row>
     <row r="200">
@@ -4358,19 +6754,31 @@
         <v>5.34694</v>
       </c>
       <c r="B200" t="n">
-        <v>0.0002249334097699183</v>
+        <v>0.00022522223210898</v>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>4.397286233992866e-05</v>
       </c>
       <c r="D200" t="n">
-        <v>4.394942243546935e-05</v>
+        <v>-1.130789605451797e-05</v>
       </c>
       <c r="E200" t="n">
-        <v>0</v>
+        <v>5.705986444414887e-06</v>
       </c>
       <c r="F200" t="n">
-        <v>-1.072215169516248e-05</v>
+        <v>1.062080152361617e-05</v>
+      </c>
+      <c r="G200" t="n">
+        <v>1.30714200851514e-05</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0.5806029394386591</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0.9651945601861188</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.1451507348596648</v>
       </c>
     </row>
     <row r="201">
@@ -4378,19 +6786,31 @@
         <v>5.34826</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0002126285333376802</v>
+        <v>0.0002127500582787214</v>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>4.149943805244914e-05</v>
       </c>
       <c r="D201" t="n">
-        <v>4.192410376188466e-05</v>
+        <v>1.16954477672883e-05</v>
       </c>
       <c r="E201" t="n">
-        <v>0</v>
+        <v>5.240188296879685e-06</v>
       </c>
       <c r="F201" t="n">
-        <v>1.028505592339121e-05</v>
+        <v>9.930061819904532e-06</v>
+      </c>
+      <c r="G201" t="n">
+        <v>1.229448683928524e-05</v>
+      </c>
+      <c r="H201" t="n">
+        <v>2.350388350523255</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0.6716108229583224</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.5875970876308136</v>
       </c>
     </row>
     <row r="202">
@@ -4398,19 +6818,31 @@
         <v>5.34858</v>
       </c>
       <c r="B202" t="n">
-        <v>0.0002000263469023997</v>
+        <v>0.0002004725126767825</v>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>4.034642239165156e-05</v>
       </c>
       <c r="D202" t="n">
-        <v>4.094282072034656e-05</v>
+        <v>-4.208887966138401e-06</v>
       </c>
       <c r="E202" t="n">
-        <v>0</v>
+        <v>4.961243807481604e-06</v>
       </c>
       <c r="F202" t="n">
-        <v>-4.500373318070391e-06</v>
+        <v>9.282216830034879e-06</v>
+      </c>
+      <c r="G202" t="n">
+        <v>1.146823566238787e-05</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0.7283509738270759</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0.9477871950960637</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.182087743456769</v>
       </c>
     </row>
     <row r="203">
@@ -4418,19 +6850,31 @@
         <v>5.35205</v>
       </c>
       <c r="B203" t="n">
-        <v>0.0003381119631856241</v>
+        <v>0.0003378639375212099</v>
       </c>
       <c r="C203" t="n">
-        <v>0</v>
+        <v>8.308347028291219e-05</v>
       </c>
       <c r="D203" t="n">
-        <v>8.300084210123922e-05</v>
+        <v>-9.718695068483541e-06</v>
       </c>
       <c r="E203" t="n">
-        <v>0</v>
+        <v>8.479881380065978e-06</v>
       </c>
       <c r="F203" t="n">
-        <v>-9.98415004743756e-06</v>
+        <v>1.57399076681294e-05</v>
+      </c>
+      <c r="G203" t="n">
+        <v>1.963916843239914e-05</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0.7406950005913006</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0.9462171954645793</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.1851737501478251</v>
       </c>
     </row>
     <row r="204">
@@ -4438,19 +6882,31 @@
         <v>5.3536</v>
       </c>
       <c r="B204" t="n">
-        <v>0.0002604446672310681</v>
+        <v>0.0002605022095941833</v>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>6.236347991392801e-05</v>
       </c>
       <c r="D204" t="n">
-        <v>6.219949547515947e-05</v>
+        <v>5.064677756900344e-06</v>
       </c>
       <c r="E204" t="n">
-        <v>0</v>
+        <v>6.068441838916456e-06</v>
       </c>
       <c r="F204" t="n">
-        <v>2.845828243225355e-06</v>
+        <v>1.127257878609161e-05</v>
+      </c>
+      <c r="G204" t="n">
+        <v>1.433572160961318e-05</v>
+      </c>
+      <c r="H204" t="n">
+        <v>3.127396555893351</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0.536736806902292</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.7818491389733379</v>
       </c>
     </row>
     <row r="205">
@@ -4458,19 +6914,31 @@
         <v>5.3579</v>
       </c>
       <c r="B205" t="n">
-        <v>0.0004104985691401268</v>
+        <v>0.0004101199024732014</v>
       </c>
       <c r="C205" t="n">
-        <v>0</v>
+        <v>9.210486042794756e-05</v>
       </c>
       <c r="D205" t="n">
-        <v>9.283990155989329e-05</v>
+        <v>3.615551827097362e-06</v>
       </c>
       <c r="E205" t="n">
-        <v>0</v>
+        <v>1.018704215960465e-05</v>
       </c>
       <c r="F205" t="n">
-        <v>1.718835688348607e-06</v>
+        <v>1.889518290976976e-05</v>
+      </c>
+      <c r="G205" t="n">
+        <v>2.366290631888839e-05</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0.7600283103701311</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0.9437250662003474</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.1900070775925328</v>
       </c>
     </row>
     <row r="206">
@@ -4478,19 +6946,31 @@
         <v>5.35797</v>
       </c>
       <c r="B206" t="n">
-        <v>0.0004350146071503898</v>
+        <v>0.0004349356440476023</v>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
+        <v>0.0001059826577536449</v>
       </c>
       <c r="D206" t="n">
-        <v>0.0001057231771976385</v>
+        <v>1.935396314507677e-05</v>
       </c>
       <c r="E206" t="n">
-        <v>0</v>
+        <v>1.001075067790772e-05</v>
       </c>
       <c r="F206" t="n">
-        <v>1.490348437805661e-05</v>
+        <v>1.860481183937789e-05</v>
+      </c>
+      <c r="G206" t="n">
+        <v>2.370776921714964e-05</v>
+      </c>
+      <c r="H206" t="n">
+        <v>2.949837245593819</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0.5662548104218115</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.7374593113984547</v>
       </c>
     </row>
     <row r="207">
@@ -4498,19 +6978,31 @@
         <v>5.359830000000001</v>
       </c>
       <c r="B207" t="n">
-        <v>0.0003894113614452074</v>
+        <v>0.0003893478539536026</v>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>8.684922856218731e-05</v>
       </c>
       <c r="D207" t="n">
-        <v>8.773028012294188e-05</v>
+        <v>1.505509549830884e-06</v>
       </c>
       <c r="E207" t="n">
-        <v>0</v>
+        <v>9.671217687678792e-06</v>
       </c>
       <c r="F207" t="n">
-        <v>9.469088560436776e-09</v>
+        <v>1.796900083954965e-05</v>
+      </c>
+      <c r="G207" t="n">
+        <v>2.247090377809421e-05</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0.8635641478924685</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0.9297289378584712</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.2158910369731171</v>
       </c>
     </row>
     <row r="208">
@@ -4518,19 +7010,31 @@
         <v>5.36189</v>
       </c>
       <c r="B208" t="n">
-        <v>0.0003752439965646346</v>
+        <v>0.0003763170438873466</v>
       </c>
       <c r="C208" t="n">
-        <v>0</v>
+        <v>8.711167209819368e-05</v>
       </c>
       <c r="D208" t="n">
-        <v>9.046259389440986e-05</v>
+        <v>-2.448845063677076e-06</v>
       </c>
       <c r="E208" t="n">
-        <v>0</v>
+        <v>9.434129937560121e-06</v>
       </c>
       <c r="F208" t="n">
-        <v>-5.13328675835587e-06</v>
+        <v>1.751204852974199e-05</v>
+      </c>
+      <c r="G208" t="n">
+        <v>2.207343901813053e-05</v>
+      </c>
+      <c r="H208" t="n">
+        <v>2.247659852989218</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0.6903138714969709</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.5619149632473044</v>
       </c>
     </row>
     <row r="209">
@@ -4538,19 +7042,31 @@
         <v>5.36386</v>
       </c>
       <c r="B209" t="n">
-        <v>0.0003692833413432441</v>
+        <v>0.0003696317838765457</v>
       </c>
       <c r="C209" t="n">
-        <v>0</v>
+        <v>9.131154228059023e-05</v>
       </c>
       <c r="D209" t="n">
-        <v>9.182690263603521e-05</v>
+        <v>4.455860814342764e-06</v>
       </c>
       <c r="E209" t="n">
-        <v>0</v>
+        <v>9.247696362534838e-06</v>
       </c>
       <c r="F209" t="n">
-        <v>2.28512946505924e-06</v>
+        <v>1.724727471856761e-05</v>
+      </c>
+      <c r="G209" t="n">
+        <v>2.182089958275937e-05</v>
+      </c>
+      <c r="H209" t="n">
+        <v>2.972058214930082</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0.5625122283273982</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.7430145537325206</v>
       </c>
     </row>
     <row r="210">
@@ -4558,19 +7074,31 @@
         <v>5.36605</v>
       </c>
       <c r="B210" t="n">
-        <v>0.0003597132588485009</v>
+        <v>0.0003593579722549398</v>
       </c>
       <c r="C210" t="n">
-        <v>0</v>
+        <v>8.448227866195986e-05</v>
       </c>
       <c r="D210" t="n">
-        <v>8.472120091451387e-05</v>
+        <v>-5.561402730161296e-06</v>
       </c>
       <c r="E210" t="n">
-        <v>0</v>
+        <v>9.126026195937238e-06</v>
       </c>
       <c r="F210" t="n">
-        <v>-6.318595194092571e-06</v>
+        <v>1.685386306956293e-05</v>
+      </c>
+      <c r="G210" t="n">
+        <v>2.110079087177955e-05</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0.3903922838503225</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0.9832559321244313</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.09759807096258064</v>
       </c>
     </row>
     <row r="211">
@@ -4578,19 +7106,31 @@
         <v>5.368040000000001</v>
       </c>
       <c r="B211" t="n">
-        <v>0.0003436090003220392</v>
+        <v>0.000343689895294934</v>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
+        <v>7.931368480533567e-05</v>
       </c>
       <c r="D211" t="n">
-        <v>7.914073519308307e-05</v>
+        <v>-9.330253017388285e-06</v>
       </c>
       <c r="E211" t="n">
-        <v>0</v>
+        <v>8.127651575091987e-06</v>
       </c>
       <c r="F211" t="n">
-        <v>-9.031857090654223e-06</v>
+        <v>1.493653419277865e-05</v>
+      </c>
+      <c r="G211" t="n">
+        <v>1.877807841683644e-05</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0.4467448560972347</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0.9784739668822318</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.1116862140243087</v>
       </c>
     </row>
     <row r="212">
@@ -4598,19 +7138,31 @@
         <v>5.36827</v>
       </c>
       <c r="B212" t="n">
-        <v>0.0003523067760188044</v>
+        <v>0.0003521344618475448</v>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>8.592425961469446e-05</v>
       </c>
       <c r="D212" t="n">
-        <v>8.486181333102896e-05</v>
+        <v>1.470553628656643e-05</v>
       </c>
       <c r="E212" t="n">
-        <v>0</v>
+        <v>8.23164704441179e-06</v>
       </c>
       <c r="F212" t="n">
-        <v>9.579636833579998e-06</v>
+        <v>1.526259409118842e-05</v>
+      </c>
+      <c r="G212" t="n">
+        <v>1.947418407671032e-05</v>
+      </c>
+      <c r="H212" t="n">
+        <v>4.829614282922842</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0.3052310879088678</v>
+      </c>
+      <c r="J212" t="n">
+        <v>1.20740357073071</v>
       </c>
     </row>
     <row r="213">
@@ -4618,19 +7170,31 @@
         <v>5.36965</v>
       </c>
       <c r="B213" t="n">
-        <v>0.0003502020859816901</v>
+        <v>0.0003499265250628368</v>
       </c>
       <c r="C213" t="n">
-        <v>0</v>
+        <v>6.970627722396278e-05</v>
       </c>
       <c r="D213" t="n">
-        <v>6.988152422758817e-05</v>
+        <v>7.570711002970133e-06</v>
       </c>
       <c r="E213" t="n">
-        <v>0</v>
+        <v>8.685723571028181e-06</v>
       </c>
       <c r="F213" t="n">
-        <v>6.733398734437141e-06</v>
+        <v>1.613718864933826e-05</v>
+      </c>
+      <c r="G213" t="n">
+        <v>2.00372631982867e-05</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0.2076333885931121</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0.9949698955575547</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.05190834714827804</v>
       </c>
     </row>
     <row r="214">
@@ -4638,19 +7202,31 @@
         <v>5.371490000000001</v>
       </c>
       <c r="B214" t="n">
-        <v>0.0003749957014928966</v>
+        <v>0.0003748119439114418</v>
       </c>
       <c r="C214" t="n">
-        <v>0</v>
+        <v>8.539680225398767e-05</v>
       </c>
       <c r="D214" t="n">
-        <v>8.433830701965792e-05</v>
+        <v>1.206385818182788e-05</v>
       </c>
       <c r="E214" t="n">
-        <v>0</v>
+        <v>8.712408393098862e-06</v>
       </c>
       <c r="F214" t="n">
-        <v>6.436495349231803e-06</v>
+        <v>1.605301000845976e-05</v>
+      </c>
+      <c r="G214" t="n">
+        <v>2.055318724156228e-05</v>
+      </c>
+      <c r="H214" t="n">
+        <v>5.050082326276989</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0.2821972316617958</v>
+      </c>
+      <c r="J214" t="n">
+        <v>1.262520581569247</v>
       </c>
     </row>
     <row r="215">
@@ -4658,19 +7234,31 @@
         <v>5.373419999999999</v>
       </c>
       <c r="B215" t="n">
-        <v>0.0003042749401288128</v>
+        <v>0.0003041012217020919</v>
       </c>
       <c r="C215" t="n">
-        <v>0</v>
+        <v>7.648559983340732e-05</v>
       </c>
       <c r="D215" t="n">
-        <v>7.60840600765825e-05</v>
+        <v>1.218471322835289e-05</v>
       </c>
       <c r="E215" t="n">
-        <v>0</v>
+        <v>6.99127795594672e-06</v>
       </c>
       <c r="F215" t="n">
-        <v>8.310486304233329e-06</v>
+        <v>1.29210341361139e-05</v>
+      </c>
+      <c r="G215" t="n">
+        <v>1.656363082582778e-05</v>
+      </c>
+      <c r="H215" t="n">
+        <v>3.485885488536484</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0.4800277299935333</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.8714713721341211</v>
       </c>
     </row>
     <row r="216">
@@ -4678,19 +7266,31 @@
         <v>5.3748</v>
       </c>
       <c r="B216" t="n">
-        <v>0.000205372255539091</v>
+        <v>0.0002054412748156858</v>
       </c>
       <c r="C216" t="n">
-        <v>0</v>
+        <v>4.991844763682595e-05</v>
       </c>
       <c r="D216" t="n">
-        <v>5.006084105210976e-05</v>
+        <v>2.612169909957992e-06</v>
       </c>
       <c r="E216" t="n">
-        <v>0</v>
+        <v>4.937302744467754e-06</v>
       </c>
       <c r="F216" t="n">
-        <v>1.966212929065244e-06</v>
+        <v>9.177154384231878e-06</v>
+      </c>
+      <c r="G216" t="n">
+        <v>1.160763900882148e-05</v>
+      </c>
+      <c r="H216" t="n">
+        <v>1.484024856297189</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0.8294674460996962</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.3710062140742973</v>
       </c>
     </row>
     <row r="217">
@@ -4698,19 +7298,31 @@
         <v>5.38009</v>
       </c>
       <c r="B217" t="n">
-        <v>8.981860121365042e-05</v>
+        <v>8.961646078340224e-05</v>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>2.062433303895302e-05</v>
       </c>
       <c r="D217" t="n">
-        <v>2.058843258039494e-05</v>
+        <v>-1.92542779173821e-06</v>
       </c>
       <c r="E217" t="n">
-        <v>0</v>
+        <v>2.57137431639651e-06</v>
       </c>
       <c r="F217" t="n">
-        <v>-1.894490838883184e-06</v>
+        <v>4.838188021160653e-06</v>
+      </c>
+      <c r="G217" t="n">
+        <v>5.89915563732367e-06</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0.7082255059878462</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0.9503106878869263</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.1770563764969615</v>
       </c>
     </row>
     <row r="218">
@@ -4718,19 +7330,31 @@
         <v>5.382919999999999</v>
       </c>
       <c r="B218" t="n">
-        <v>5.781402309190402e-05</v>
+        <v>5.778933415150327e-05</v>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>8.06130872077244e-06</v>
       </c>
       <c r="D218" t="n">
-        <v>7.759878767793489e-06</v>
+        <v>-3.511382926965745e-06</v>
       </c>
       <c r="E218" t="n">
-        <v>0</v>
+        <v>1.834941646528474e-06</v>
       </c>
       <c r="F218" t="n">
-        <v>-3.656295470951458e-06</v>
+        <v>3.463845066725605e-06</v>
+      </c>
+      <c r="G218" t="n">
+        <v>4.155622710878289e-06</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0.6745262921624304</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0.9544327929660912</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.1686315730406076</v>
       </c>
     </row>
     <row r="219">
@@ -4738,19 +7362,31 @@
         <v>5.38334</v>
       </c>
       <c r="B219" t="n">
-        <v>8.124213668680005e-05</v>
+        <v>8.128432881899775e-05</v>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
+        <v>1.63798893980238e-05</v>
       </c>
       <c r="D219" t="n">
-        <v>1.691910514686228e-05</v>
+        <v>2.956937255019855e-06</v>
       </c>
       <c r="E219" t="n">
-        <v>0</v>
+        <v>2.196424320818958e-06</v>
       </c>
       <c r="F219" t="n">
-        <v>2.3328016780247e-06</v>
+        <v>4.173033426762479e-06</v>
+      </c>
+      <c r="G219" t="n">
+        <v>5.143279666336038e-06</v>
+      </c>
+      <c r="H219" t="n">
+        <v>1.71101639592566</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0.7887155220212795</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.427754098981415</v>
       </c>
     </row>
     <row r="220">
@@ -4758,19 +7394,31 @@
         <v>5.383859999999999</v>
       </c>
       <c r="B220" t="n">
-        <v>5.108765938350154e-05</v>
+        <v>5.083292463276271e-05</v>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
+        <v>9.032087913448986e-06</v>
       </c>
       <c r="D220" t="n">
-        <v>8.618249237228057e-06</v>
+        <v>-1.63184024079125e-06</v>
       </c>
       <c r="E220" t="n">
-        <v>0</v>
+        <v>1.560336159748515e-06</v>
       </c>
       <c r="F220" t="n">
-        <v>-1.265594231719663e-06</v>
+        <v>2.937743455200533e-06</v>
+      </c>
+      <c r="G220" t="n">
+        <v>3.553410631383032e-06</v>
+      </c>
+      <c r="H220" t="n">
+        <v>3.001649311186973</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0.5575494300148315</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0.7504123277967432</v>
       </c>
     </row>
     <row r="221">
@@ -4778,19 +7426,31 @@
         <v>5.38596</v>
       </c>
       <c r="B221" t="n">
-        <v>3.940575500517179e-05</v>
+        <v>3.942199037399993e-05</v>
       </c>
       <c r="C221" t="n">
-        <v>0</v>
+        <v>4.223274752767141e-06</v>
       </c>
       <c r="D221" t="n">
-        <v>4.572829062913712e-06</v>
+        <v>2.776057696368769e-06</v>
       </c>
       <c r="E221" t="n">
-        <v>0</v>
+        <v>1.316433757518568e-06</v>
       </c>
       <c r="F221" t="n">
-        <v>2.449125403465283e-06</v>
+        <v>2.541181250954999e-06</v>
+      </c>
+      <c r="G221" t="n">
+        <v>3.022720631049427e-06</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0.6724129243524762</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0.9546868849310377</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.1681032310881191</v>
       </c>
     </row>
     <row r="222">
@@ -4798,19 +7458,31 @@
         <v>5.38986</v>
       </c>
       <c r="B222" t="n">
-        <v>3.413864196461903e-05</v>
+        <v>3.418860761991953e-05</v>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>3.345180195933356e-06</v>
       </c>
       <c r="D222" t="n">
-        <v>3.137084121675332e-06</v>
+        <v>-2.2523170579169e-06</v>
       </c>
       <c r="E222" t="n">
-        <v>0</v>
+        <v>1.145815421824849e-06</v>
       </c>
       <c r="F222" t="n">
-        <v>-2.407483674803346e-06</v>
+        <v>2.241314603779677e-06</v>
+      </c>
+      <c r="G222" t="n">
+        <v>2.562440527801136e-06</v>
+      </c>
+      <c r="H222" t="n">
+        <v>1.163379484458666</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0.8840903554280219</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.2908448711146665</v>
       </c>
     </row>
     <row r="223">
@@ -4818,19 +7490,31 @@
         <v>5.39308</v>
       </c>
       <c r="B223" t="n">
-        <v>3.216044166305156e-05</v>
+        <v>3.198846375932816e-05</v>
       </c>
       <c r="C223" t="n">
-        <v>0</v>
+        <v>1.371278867633363e-06</v>
       </c>
       <c r="D223" t="n">
-        <v>1.315123929134831e-06</v>
+        <v>2.341261970951053e-06</v>
       </c>
       <c r="E223" t="n">
-        <v>0</v>
+        <v>1.135528694011622e-06</v>
       </c>
       <c r="F223" t="n">
-        <v>2.601319559096723e-06</v>
+        <v>2.173888036573901e-06</v>
+      </c>
+      <c r="G223" t="n">
+        <v>2.626512596553817e-06</v>
+      </c>
+      <c r="H223" t="n">
+        <v>6.672850879215427</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0.1542200096055016</v>
+      </c>
+      <c r="J223" t="n">
+        <v>1.668212719803857</v>
       </c>
     </row>
     <row r="224">
@@ -4838,19 +7522,31 @@
         <v>5.40341</v>
       </c>
       <c r="B224" t="n">
-        <v>3.124872074205563e-05</v>
+        <v>3.112519135493377e-05</v>
       </c>
       <c r="C224" t="n">
-        <v>0</v>
+        <v>4.631447697843313e-07</v>
       </c>
       <c r="D224" t="n">
-        <v>8.829767117806767e-07</v>
+        <v>3.983852465121969e-06</v>
       </c>
       <c r="E224" t="n">
-        <v>0</v>
+        <v>1.123989665768626e-06</v>
       </c>
       <c r="F224" t="n">
-        <v>3.779485049669485e-06</v>
+        <v>2.189249585501174e-06</v>
+      </c>
+      <c r="G224" t="n">
+        <v>2.542620100351002e-06</v>
+      </c>
+      <c r="H224" t="n">
+        <v>5.286222551599463</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0.2591694424750173</v>
+      </c>
+      <c r="J224" t="n">
+        <v>1.321555637899866</v>
       </c>
     </row>
     <row r="225">
@@ -4858,19 +7554,31 @@
         <v>5.41408</v>
       </c>
       <c r="B225" t="n">
-        <v>3.751468777130242e-05</v>
+        <v>3.763449866050267e-05</v>
       </c>
       <c r="C225" t="n">
-        <v>0</v>
+        <v>1.373317161307334e-06</v>
       </c>
       <c r="D225" t="n">
-        <v>1.751415954839869e-06</v>
+        <v>6.416888788119817e-07</v>
       </c>
       <c r="E225" t="n">
-        <v>0</v>
+        <v>1.297839969319137e-06</v>
       </c>
       <c r="F225" t="n">
-        <v>5.539661847502759e-07</v>
+        <v>2.527538803712331e-06</v>
+      </c>
+      <c r="G225" t="n">
+        <v>2.94931398875711e-06</v>
+      </c>
+      <c r="H225" t="n">
+        <v>1.325512060434705</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0.8570324080642104</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.3313780151086764</v>
       </c>
     </row>
     <row r="226">
@@ -4878,19 +7586,31 @@
         <v>5.42436</v>
       </c>
       <c r="B226" t="n">
-        <v>3.800803970945954e-05</v>
+        <v>3.791929698129847e-05</v>
       </c>
       <c r="C226" t="n">
-        <v>0</v>
+        <v>3.978774693323507e-06</v>
       </c>
       <c r="D226" t="n">
-        <v>3.931620873595142e-06</v>
+        <v>1.906042408146742e-06</v>
       </c>
       <c r="E226" t="n">
-        <v>0</v>
+        <v>1.336799885374983e-06</v>
       </c>
       <c r="F226" t="n">
-        <v>2.068918993551979e-06</v>
+        <v>2.61162269950249e-06</v>
+      </c>
+      <c r="G226" t="n">
+        <v>3.033315196040057e-06</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0.5465922979328347</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0.9688095610553427</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.1366480744832087</v>
       </c>
     </row>
     <row r="227">
@@ -4898,19 +7618,31 @@
         <v>5.43541</v>
       </c>
       <c r="B227" t="n">
-        <v>4.198089464376256e-05</v>
+        <v>4.218035233028199e-05</v>
       </c>
       <c r="C227" t="n">
-        <v>0</v>
+        <v>6.628087467004168e-06</v>
       </c>
       <c r="D227" t="n">
-        <v>6.766106499424512e-06</v>
+        <v>2.391231818693349e-06</v>
       </c>
       <c r="E227" t="n">
-        <v>0</v>
+        <v>1.263879787137819e-06</v>
       </c>
       <c r="F227" t="n">
-        <v>2.625082876328984e-06</v>
+        <v>2.486891520098862e-06</v>
+      </c>
+      <c r="G227" t="n">
+        <v>2.95135073927146e-06</v>
+      </c>
+      <c r="H227" t="n">
+        <v>2.503085481453715</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0.6440833750305428</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.6257713703634288</v>
       </c>
     </row>
     <row r="228">
@@ -4918,19 +7650,31 @@
         <v>5.43926</v>
       </c>
       <c r="B228" t="n">
-        <v>4.860010999832939e-05</v>
+        <v>4.875570104125901e-05</v>
       </c>
       <c r="C228" t="n">
-        <v>0</v>
+        <v>6.244853834463957e-06</v>
       </c>
       <c r="D228" t="n">
-        <v>6.684662756913025e-06</v>
+        <v>1.592382313898117e-06</v>
       </c>
       <c r="E228" t="n">
-        <v>0</v>
+        <v>1.478405022939629e-06</v>
       </c>
       <c r="F228" t="n">
-        <v>1.418395634556859e-06</v>
+        <v>2.85030710033983e-06</v>
+      </c>
+      <c r="G228" t="n">
+        <v>3.422658844642209e-06</v>
+      </c>
+      <c r="H228" t="n">
+        <v>1.015493538956375</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0.90743763338938</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.2538733847390937</v>
       </c>
     </row>
     <row r="229">
@@ -4938,19 +7682,31 @@
         <v>5.44082</v>
       </c>
       <c r="B229" t="n">
-        <v>4.846799095123276e-05</v>
+        <v>4.893526238816205e-05</v>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>1.901551825204788e-06</v>
       </c>
       <c r="D229" t="n">
-        <v>3.462384350585882e-06</v>
+        <v>6.655370187346417e-06</v>
       </c>
       <c r="E229" t="n">
-        <v>0</v>
+        <v>1.655708555794322e-06</v>
       </c>
       <c r="F229" t="n">
-        <v>5.63172191407934e-06</v>
+        <v>3.121886344449403e-06</v>
+      </c>
+      <c r="G229" t="n">
+        <v>3.829052966041538e-06</v>
+      </c>
+      <c r="H229" t="n">
+        <v>8.298465387130758</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0.08123695849138679</v>
+      </c>
+      <c r="J229" t="n">
+        <v>2.074616346782689</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/CSV/analytically/p2/a4/a4Fit.xlsx
+++ b/legendre_out/CSV/analytically/p2/a4/a4Fit.xlsx
@@ -471,7 +471,7 @@
         <v>9.178343865237123</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05679308008739259</v>
+        <v>0.05679308008739262</v>
       </c>
       <c r="J3" t="n">
         <v>2.294585966309281</v>
@@ -503,7 +503,7 @@
         <v>10.50772496970774</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0326907467735027</v>
+        <v>0.03269074677350271</v>
       </c>
       <c r="J4" t="n">
         <v>2.626931242426935</v>
@@ -727,7 +727,7 @@
         <v>4.00551873080586</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4052594859408096</v>
+        <v>0.4052594859408097</v>
       </c>
       <c r="J11" t="n">
         <v>1.001379682701465</v>
@@ -823,7 +823,7 @@
         <v>10.20911154656314</v>
       </c>
       <c r="I14" t="n">
-        <v>0.03704875864070378</v>
+        <v>0.0370487586407038</v>
       </c>
       <c r="J14" t="n">
         <v>2.552277886640784</v>
@@ -1047,7 +1047,7 @@
         <v>4.782367611213981</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3103654701362584</v>
+        <v>0.3103654701362583</v>
       </c>
       <c r="J21" t="n">
         <v>1.195591902803495</v>
@@ -1847,7 +1847,7 @@
         <v>7.415849829400228</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1154777193281721</v>
+        <v>0.115477719328172</v>
       </c>
       <c r="J46" t="n">
         <v>1.853962457350057</v>
@@ -2743,7 +2743,7 @@
         <v>4.248170885707774</v>
       </c>
       <c r="I74" t="n">
-        <v>0.373460192110163</v>
+        <v>0.3734601921101631</v>
       </c>
       <c r="J74" t="n">
         <v>1.062042721426943</v>
@@ -6007,7 +6007,7 @@
         <v>4.43126631695543</v>
       </c>
       <c r="I176" t="n">
-        <v>0.3507754929786011</v>
+        <v>0.3507754929786012</v>
       </c>
       <c r="J176" t="n">
         <v>1.107816579238857</v>
@@ -6679,7 +6679,7 @@
         <v>4.187784717638285</v>
       </c>
       <c r="I197" t="n">
-        <v>0.3811880722979486</v>
+        <v>0.3811880722979487</v>
       </c>
       <c r="J197" t="n">
         <v>1.046946179409571</v>
@@ -7223,7 +7223,7 @@
         <v>5.050082326276989</v>
       </c>
       <c r="I214" t="n">
-        <v>0.2821972316617958</v>
+        <v>0.2821972316617957</v>
       </c>
       <c r="J214" t="n">
         <v>1.262520581569247</v>
@@ -7511,7 +7511,7 @@
         <v>6.672850879215427</v>
       </c>
       <c r="I223" t="n">
-        <v>0.1542200096055016</v>
+        <v>0.1542200096055017</v>
       </c>
       <c r="J223" t="n">
         <v>1.668212719803857</v>
@@ -7703,7 +7703,7 @@
         <v>8.298465387130758</v>
       </c>
       <c r="I229" t="n">
-        <v>0.08123695849138679</v>
+        <v>0.08123695849138676</v>
       </c>
       <c r="J229" t="n">
         <v>2.074616346782689</v>
